--- a/inventory/king-seafood-inventory.xlsx
+++ b/inventory/king-seafood-inventory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nc/Desktop/projects/king-seafood/inventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{839445DE-9DA3-874F-98D4-78C4740C3CE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6B6480-DA8E-C947-BCCB-AEA265609EF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="44840" yWindow="14200" windowWidth="27700" windowHeight="16940" activeTab="3" xr2:uid="{FD52CB84-DEDF-7340-971F-DF3224C449BE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="22">
   <si>
     <t>MEAT</t>
   </si>
@@ -72,12 +72,6 @@
     <t>{name:"</t>
   </si>
   <si>
-    <t>", price: "</t>
-  </si>
-  <si>
-    <t>", id: "</t>
-  </si>
-  <si>
     <t>", img: "</t>
   </si>
   <si>
@@ -100,6 +94,15 @@
   </si>
   <si>
     <t>./media/fruits/1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">", price: </t>
+  </si>
+  <si>
+    <t>, id: "</t>
+  </si>
+  <si>
+    <t xml:space="preserve">", id: </t>
   </si>
 </sst>
 </file>
@@ -493,7 +496,7 @@
   <dimension ref="A2:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="K3" sqref="K3:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -554,28 +557,28 @@
         <v>meat</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J3" s="4">
         <f>C3</f>
         <v>200</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L3" s="3">
         <f>D3</f>
         <v>100</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N3" s="3" t="str">
         <f>E3</f>
         <v>./media/meat/1.jpg</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>5</v>
@@ -597,28 +600,28 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J4" s="4">
         <f>C4</f>
         <v>0</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L4" s="3">
         <f>D4</f>
         <v>0</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N4" s="3">
         <f>E4</f>
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>5</v>
@@ -640,28 +643,28 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" ref="J4:J18" si="1">C5</f>
         <v>0</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" ref="L4:L18" si="2">D5</f>
         <v>0</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N5" s="3">
         <f t="shared" ref="N4:N18" si="3">E5</f>
         <v>0</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>5</v>
@@ -683,28 +686,28 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N6" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>5</v>
@@ -726,28 +729,28 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>5</v>
@@ -769,28 +772,28 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N8" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>5</v>
@@ -812,28 +815,28 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N9" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>5</v>
@@ -855,28 +858,28 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>5</v>
@@ -898,28 +901,28 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N11" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>5</v>
@@ -941,28 +944,28 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N12" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>5</v>
@@ -984,28 +987,28 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>5</v>
@@ -1027,28 +1030,28 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
@@ -1070,28 +1073,28 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>5</v>
@@ -1113,28 +1116,28 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N16" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>5</v>
@@ -1156,28 +1159,28 @@
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>5</v>
@@ -1199,28 +1202,28 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N18" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>5</v>
@@ -1242,28 +1245,28 @@
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" ref="J19:J32" si="5">C19</f>
         <v>0</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" ref="L19:L32" si="6">D19</f>
         <v>0</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N19" s="3">
         <f t="shared" ref="N19:N32" si="7">E19</f>
         <v>0</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>5</v>
@@ -1285,28 +1288,28 @@
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N20" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>5</v>
@@ -1328,28 +1331,28 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L21" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N21" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>5</v>
@@ -1371,28 +1374,28 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N22" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>5</v>
@@ -1414,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L23" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N23" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>5</v>
@@ -1457,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N24" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>5</v>
@@ -1500,28 +1503,28 @@
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N25" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>5</v>
@@ -1543,28 +1546,28 @@
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L26" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N26" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>5</v>
@@ -1586,28 +1589,28 @@
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N27" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>5</v>
@@ -1629,28 +1632,28 @@
         <v>0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N28" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>5</v>
@@ -1672,28 +1675,28 @@
         <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N29" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -1715,28 +1718,28 @@
         <v>0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L30" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N30" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P30" s="3" t="s">
         <v>5</v>
@@ -1758,28 +1761,28 @@
         <v>0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L31" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N31" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P31" s="3" t="s">
         <v>5</v>
@@ -1801,28 +1804,28 @@
         <v>0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N32" s="3">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P32" s="3"/>
     </row>
@@ -1833,17 +1836,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E935931-FAA4-FA4C-A5B5-294B876F1358}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
     <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1890,7 +1895,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="6">
         <v>200</v>
@@ -1899,7 +1904,7 @@
         <v>200</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>10</v>
@@ -1909,28 +1914,28 @@
         <v>seafood</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J3" s="4">
         <f>C3</f>
         <v>200</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L3" s="3">
         <f>D3</f>
         <v>200</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N3" s="3" t="str">
         <f>E3</f>
         <v>./media/seafood/1.jpg</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>5</v>
@@ -1952,28 +1957,28 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J4" s="4">
         <f>C4</f>
         <v>0</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L4" s="3">
         <f>D4</f>
         <v>0</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N4" s="3">
         <f>E4</f>
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>5</v>
@@ -1995,28 +2000,28 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" ref="J5:J32" si="1">C5</f>
         <v>0</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" ref="L5:L32" si="2">D5</f>
         <v>0</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N5" s="3">
         <f t="shared" ref="N5:N32" si="3">E5</f>
         <v>0</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>5</v>
@@ -2038,28 +2043,28 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N6" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>5</v>
@@ -2081,28 +2086,28 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>5</v>
@@ -2124,28 +2129,28 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N8" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>5</v>
@@ -2167,28 +2172,28 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N9" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>5</v>
@@ -2210,28 +2215,28 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>5</v>
@@ -2253,28 +2258,28 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N11" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>5</v>
@@ -2296,28 +2301,28 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N12" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>5</v>
@@ -2339,28 +2344,28 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>5</v>
@@ -2382,28 +2387,28 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
@@ -2425,28 +2430,28 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>5</v>
@@ -2468,28 +2473,28 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N16" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>5</v>
@@ -2511,28 +2516,28 @@
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>5</v>
@@ -2554,28 +2559,28 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N18" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>5</v>
@@ -2597,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N19" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>5</v>
@@ -2640,28 +2645,28 @@
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N20" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>5</v>
@@ -2683,28 +2688,28 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L21" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N21" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>5</v>
@@ -2726,28 +2731,28 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N22" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>5</v>
@@ -2769,28 +2774,28 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L23" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N23" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>5</v>
@@ -2812,28 +2817,28 @@
         <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N24" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>5</v>
@@ -2855,28 +2860,28 @@
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N25" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>5</v>
@@ -2898,28 +2903,28 @@
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L26" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N26" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>5</v>
@@ -2941,28 +2946,28 @@
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N27" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>5</v>
@@ -2984,28 +2989,28 @@
         <v>0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N28" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>5</v>
@@ -3027,28 +3032,28 @@
         <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N29" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -3070,28 +3075,28 @@
         <v>0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L30" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N30" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P30" s="3" t="s">
         <v>5</v>
@@ -3113,28 +3118,28 @@
         <v>0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L31" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N31" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P31" s="3" t="s">
         <v>5</v>
@@ -3152,34 +3157,1238 @@
         <v>10</v>
       </c>
       <c r="H32" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H32:H60" si="4">B32</f>
         <v>0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J32:J60" si="5">C32</f>
         <v>0</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L32" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="L32:L60" si="6">D32</f>
         <v>0</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N32" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="N32:N60" si="7">E32</f>
         <v>0</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P32" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="5">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="G33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J33" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L33" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N33" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="5">
+        <v>32</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="G34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N34" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="5">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="G35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N35" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="5">
+        <v>34</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="G36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N36" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="5">
+        <v>35</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="G37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J37" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N37" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="5">
+        <v>36</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="G38" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N38" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="5">
+        <v>37</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="G39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N39" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="5">
+        <v>38</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="G40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J40" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N40" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="5">
+        <v>39</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="G41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J41" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N41" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="5">
+        <v>40</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="G42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J42" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N42" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="5">
+        <v>41</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="G43" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J43" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N43" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="5">
+        <v>42</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="G44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J44" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L44" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N44" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="5">
+        <v>43</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="G45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J45" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N45" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="5">
+        <v>44</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="G46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J46" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L46" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N46" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="5">
+        <v>45</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="G47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J47" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L47" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N47" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="5">
+        <v>46</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="G48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J48" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L48" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N48" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="5">
+        <v>47</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="G49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J49" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L49" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N49" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="5">
+        <v>48</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="G50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H50" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J50" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L50" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N50" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P50" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="5">
+        <v>49</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="G51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H51" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J51" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L51" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N51" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="5">
+        <v>50</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="G52" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J52" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L52" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N52" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="5">
+        <v>51</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="G53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J53" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N53" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="5">
+        <v>52</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="G54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N54" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="5">
+        <v>53</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="G55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L55" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N55" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="5">
+        <v>54</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="G56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L56" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N56" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="5">
+        <v>55</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="G57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L57" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N57" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="5">
+        <v>56</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="G58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N58" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="5">
+        <v>57</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="G59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N59" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="5">
+        <v>58</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="G60" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N60" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P60" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3191,7 +4400,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="K3" sqref="K3:K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3243,7 +4452,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="6">
         <v>200</v>
@@ -3252,7 +4461,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>10</v>
@@ -3262,28 +4471,28 @@
         <v>vegetable</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J3" s="4">
         <f>C3</f>
         <v>200</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L3" s="3">
         <f>D3</f>
         <v>100</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N3" s="3" t="str">
         <f>E3</f>
         <v>./media/vegetables/1.jpg</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>5</v>
@@ -3305,28 +4514,28 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J4" s="4">
         <f>C4</f>
         <v>0</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L4" s="3">
         <f>D4</f>
         <v>0</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N4" s="3">
         <f>E4</f>
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>5</v>
@@ -3348,28 +4557,28 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" ref="J5:J32" si="1">C5</f>
         <v>0</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" ref="L5:L32" si="2">D5</f>
         <v>0</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N5" s="3">
         <f t="shared" ref="N5:N32" si="3">E5</f>
         <v>0</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>5</v>
@@ -3391,28 +4600,28 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N6" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>5</v>
@@ -3434,28 +4643,28 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>5</v>
@@ -3477,28 +4686,28 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N8" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>5</v>
@@ -3520,28 +4729,28 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N9" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>5</v>
@@ -3563,28 +4772,28 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>5</v>
@@ -3606,28 +4815,28 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N11" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>5</v>
@@ -3649,28 +4858,28 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N12" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>5</v>
@@ -3692,28 +4901,28 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>5</v>
@@ -3735,28 +4944,28 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
@@ -3778,28 +4987,28 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>5</v>
@@ -3821,28 +5030,28 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N16" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>5</v>
@@ -3864,28 +5073,28 @@
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>5</v>
@@ -3907,28 +5116,28 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N18" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>5</v>
@@ -3950,28 +5159,28 @@
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N19" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>5</v>
@@ -3993,28 +5202,28 @@
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N20" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>5</v>
@@ -4036,28 +5245,28 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L21" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N21" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>5</v>
@@ -4079,28 +5288,28 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N22" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>5</v>
@@ -4122,28 +5331,28 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L23" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N23" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>5</v>
@@ -4165,28 +5374,28 @@
         <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N24" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>5</v>
@@ -4208,28 +5417,28 @@
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N25" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>5</v>
@@ -4251,28 +5460,28 @@
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L26" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N26" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>5</v>
@@ -4294,28 +5503,28 @@
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N27" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>5</v>
@@ -4337,28 +5546,28 @@
         <v>0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N28" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>5</v>
@@ -4380,28 +5589,28 @@
         <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N29" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -4423,28 +5632,28 @@
         <v>0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L30" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N30" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P30" s="3" t="s">
         <v>5</v>
@@ -4466,28 +5675,28 @@
         <v>0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L31" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N31" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P31" s="3" t="s">
         <v>5</v>
@@ -4509,28 +5718,28 @@
         <v>0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N32" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P32" s="3"/>
     </row>
@@ -4544,7 +5753,7 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4596,7 +5805,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="6">
         <v>200</v>
@@ -4605,7 +5814,7 @@
         <v>100</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>10</v>
@@ -4615,28 +5824,28 @@
         <v>fruits</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J3" s="4">
         <f>C3</f>
         <v>200</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L3" s="3">
         <f>D3</f>
         <v>100</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N3" s="3" t="str">
         <f>E3</f>
         <v>./media/fruits/1.jpg</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>5</v>
@@ -4658,28 +5867,28 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J4" s="4">
         <f>C4</f>
         <v>0</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L4" s="3">
         <f>D4</f>
         <v>0</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N4" s="3">
         <f>E4</f>
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P4" s="3" t="s">
         <v>5</v>
@@ -4701,28 +5910,28 @@
         <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" ref="J5:J32" si="1">C5</f>
         <v>0</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" ref="L5:L32" si="2">D5</f>
         <v>0</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N5" s="3">
         <f t="shared" ref="N5:N32" si="3">E5</f>
         <v>0</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P5" s="3" t="s">
         <v>5</v>
@@ -4744,28 +5953,28 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L6" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N6" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P6" s="3" t="s">
         <v>5</v>
@@ -4787,28 +5996,28 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L7" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N7" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P7" s="3" t="s">
         <v>5</v>
@@ -4830,28 +6039,28 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N8" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>5</v>
@@ -4873,28 +6082,28 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N9" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>5</v>
@@ -4916,28 +6125,28 @@
         <v>0</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L10" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>5</v>
@@ -4959,28 +6168,28 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J11" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L11" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N11" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P11" s="3" t="s">
         <v>5</v>
@@ -5002,28 +6211,28 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J12" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L12" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N12" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>5</v>
@@ -5045,28 +6254,28 @@
         <v>0</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J13" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P13" s="3" t="s">
         <v>5</v>
@@ -5088,28 +6297,28 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J14" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L14" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>5</v>
@@ -5131,28 +6340,28 @@
         <v>0</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L15" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P15" s="3" t="s">
         <v>5</v>
@@ -5174,28 +6383,28 @@
         <v>0</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L16" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N16" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>5</v>
@@ -5217,28 +6426,28 @@
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J17" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>5</v>
@@ -5260,28 +6469,28 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L18" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N18" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P18" s="3" t="s">
         <v>5</v>
@@ -5303,28 +6512,28 @@
         <v>0</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J19" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L19" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N19" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P19" s="3" t="s">
         <v>5</v>
@@ -5346,28 +6555,28 @@
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L20" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N20" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>5</v>
@@ -5389,28 +6598,28 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L21" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N21" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>5</v>
@@ -5432,28 +6641,28 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J22" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L22" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N22" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>5</v>
@@ -5475,28 +6684,28 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L23" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N23" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>5</v>
@@ -5518,28 +6727,28 @@
         <v>0</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L24" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N24" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>5</v>
@@ -5561,28 +6770,28 @@
         <v>0</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L25" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N25" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>5</v>
@@ -5604,28 +6813,28 @@
         <v>0</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L26" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N26" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>5</v>
@@ -5647,28 +6856,28 @@
         <v>0</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L27" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N27" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>5</v>
@@ -5690,28 +6899,28 @@
         <v>0</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L28" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N28" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>5</v>
@@ -5733,28 +6942,28 @@
         <v>0</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L29" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N29" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -5776,28 +6985,28 @@
         <v>0</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L30" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N30" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O30" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P30" s="3" t="s">
         <v>5</v>
@@ -5819,28 +7028,28 @@
         <v>0</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L31" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N31" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P31" s="3" t="s">
         <v>5</v>
@@ -5862,28 +7071,28 @@
         <v>0</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L32" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N32" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P32" s="3"/>
     </row>

--- a/inventory/king-seafood-inventory.xlsx
+++ b/inventory/king-seafood-inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nc/Desktop/projects/king-seafood/inventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C162610-5D98-1944-BDB4-A89D111E4956}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A234DCDD-A287-F44A-A54C-61445BEC551D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38880" yWindow="3780" windowWidth="35960" windowHeight="33380" xr2:uid="{FD52CB84-DEDF-7340-971F-DF3224C449BE}"/>
+    <workbookView xWindow="33640" yWindow="3780" windowWidth="41200" windowHeight="33380" xr2:uid="{FD52CB84-DEDF-7340-971F-DF3224C449BE}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAT" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="119">
   <si>
     <t>FRUITS</t>
   </si>
@@ -48,6 +48,9 @@
     <t>"</t>
   </si>
   <si>
+    <t>meat</t>
+  </si>
+  <si>
     <t>img</t>
   </si>
   <si>
@@ -186,9 +189,6 @@
     <t>Halibut Steak</t>
   </si>
   <si>
-    <t>Hokkaido Scallops</t>
-  </si>
-  <si>
     <t>Imitation Shark Fin</t>
   </si>
   <si>
@@ -231,9 +231,6 @@
     <t>Premium Black Mussels</t>
   </si>
   <si>
-    <t>Red Snaper Fillet (Miso)</t>
-  </si>
-  <si>
     <t>Saba Fillet</t>
   </si>
   <si>
@@ -309,9 +306,6 @@
     <t>Tilapia (Premium Quality)</t>
   </si>
   <si>
-    <t>Tobiko Orange</t>
-  </si>
-  <si>
     <t>Tobiko Shrimp Paste</t>
   </si>
   <si>
@@ -334,13 +328,79 @@
   </si>
   <si>
     <t>Cod Fish</t>
+  </si>
+  <si>
+    <t>Australian Beef Slice</t>
+  </si>
+  <si>
+    <t>Breaded Chicken Chop</t>
+  </si>
+  <si>
+    <t>Chicken Burger Patty</t>
+  </si>
+  <si>
+    <t>Chicken Nuggets Tempura</t>
+  </si>
+  <si>
+    <t>Crispy Popcorn Chicken</t>
+  </si>
+  <si>
+    <t>Meatballs</t>
+  </si>
+  <si>
+    <t>Miami Butcher Chicken Ham (Sliced)</t>
+  </si>
+  <si>
+    <t>Miami Butcher Chicken Sausage Breakfast</t>
+  </si>
+  <si>
+    <t>Miami Butcher Turkey Bacon (Sliced)</t>
+  </si>
+  <si>
+    <t>Mince Meat 300g</t>
+  </si>
+  <si>
+    <t>Mince Meat 600g</t>
+  </si>
+  <si>
+    <t>Pork Stomach</t>
+  </si>
+  <si>
+    <t>Pork Tendon</t>
+  </si>
+  <si>
+    <t>Shabu Shabu Pork</t>
+  </si>
+  <si>
+    <t>Shabu Shabu Pork Belly</t>
+  </si>
+  <si>
+    <t>Smoked Back Bacon</t>
+  </si>
+  <si>
+    <t>Smoked Duck</t>
+  </si>
+  <si>
+    <t>Miami Butcher Chicken Sausage Jumbo</t>
+  </si>
+  <si>
+    <t>Hokkaido Scallops (S)</t>
+  </si>
+  <si>
+    <t>Red Snapper Fillet (Miso)</t>
+  </si>
+  <si>
+    <t>Tobiko Orange (50g)</t>
+  </si>
+  <si>
+    <t>Tobiko Orange (500g)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -353,13 +413,25 @@
       <color theme="1"/>
       <name val="ArialMT"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="ArialMT"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -389,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -412,11 +484,25 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -734,21 +820,22 @@
   <dimension ref="A1:P32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="5.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="1"/>
-    <col min="4" max="4" width="10.7109375" style="2"/>
-    <col min="5" max="5" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="110.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.5703125" style="3" customWidth="1"/>
     <col min="13" max="13" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="22.7109375" style="3" customWidth="1"/>
@@ -759,9 +846,9 @@
     <row r="1" spans="1:16">
       <c r="B1"/>
       <c r="C1"/>
-      <c r="D1" s="9"/>
+      <c r="D1" s="10"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
       <c r="J1"/>
@@ -770,19 +857,19 @@
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="J2" s="5"/>
     </row>
@@ -791,39 +878,39 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C3" s="5" t="str">
         <f>""&amp;J3&amp;""&amp;B3&amp;""&amp;J3&amp;""</f>
-        <v>"vegetables"</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>13</v>
+        <v>"meat"</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="E3" s="6" t="str">
         <f>""&amp;J3&amp;""&amp;D3&amp;""&amp;J3&amp;""</f>
-        <v>"Cheese Tofu"</v>
-      </c>
-      <c r="F3" s="6">
+        <v>"Australian Beef Slice"</v>
+      </c>
+      <c r="F3" s="13">
         <v>200</v>
       </c>
       <c r="G3" s="5">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="H3" s="6" t="str">
         <f>""&amp;J3&amp;""&amp;G3&amp;""&amp;J3&amp;""</f>
-        <v>"300"</v>
+        <v>"100"</v>
       </c>
       <c r="I3" s="7" t="str">
         <f>"./media/"&amp;E3&amp;"/1.jpg"</f>
-        <v>./media/"Cheese Tofu"/1.jpg</v>
+        <v>./media/"Australian Beef Slice"/1.jpg</v>
       </c>
       <c r="J3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="2" t="str">
-        <f>"{name:"&amp;E3&amp;", category: "&amp;C3&amp;", price: "&amp;F3&amp;", id: "&amp;H3&amp;", img: ""./media/vegetables/"&amp;D3&amp;"/1.jpg""},"</f>
-        <v>{name:"Cheese Tofu", category: "vegetables", price: 200, id: "300", img: "./media/vegetables/Cheese Tofu/1.jpg"},</v>
+      <c r="K3" s="9" t="str">
+        <f>"{name:"&amp;E3&amp;", category: "&amp;C3&amp;", price: "&amp;F3&amp;", id: "&amp;H3&amp;", img: ""./media/meat/"&amp;D3&amp;"/1.jpg""},"</f>
+        <v>{name:"Australian Beef Slice", category: "meat", price: 200, id: "100", img: "./media/meat/Australian Beef Slice/1.jpg"},</v>
       </c>
       <c r="P3" s="3"/>
     </row>
@@ -832,39 +919,39 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C4" s="5" t="str">
-        <f t="shared" ref="C4:C7" si="0">""&amp;J4&amp;""&amp;B4&amp;""&amp;J4&amp;""</f>
-        <v>"vegetables"</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>14</v>
+        <f t="shared" ref="C4:C20" si="0">""&amp;J4&amp;""&amp;B4&amp;""&amp;J4&amp;""</f>
+        <v>"meat"</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="E4" s="6" t="str">
-        <f t="shared" ref="E4:E7" si="1">""&amp;J4&amp;""&amp;D4&amp;""&amp;J4&amp;""</f>
-        <v>"Edamame"</v>
-      </c>
-      <c r="F4" s="6">
+        <f t="shared" ref="E4:E20" si="1">""&amp;J4&amp;""&amp;D4&amp;""&amp;J4&amp;""</f>
+        <v>"Breaded Chicken Chop"</v>
+      </c>
+      <c r="F4" s="13">
         <v>200</v>
       </c>
       <c r="G4" s="5">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="H4" s="6" t="str">
         <f t="shared" ref="H4:H7" si="2">""&amp;J4&amp;""&amp;G4&amp;""&amp;J4&amp;""</f>
-        <v>"301"</v>
+        <v>"101"</v>
       </c>
       <c r="I4" s="7" t="str">
         <f>"./media/"&amp;E4&amp;"/1.jpg"</f>
-        <v>./media/"Edamame"/1.jpg</v>
+        <v>./media/"Breaded Chicken Chop"/1.jpg</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="2" t="str">
-        <f t="shared" ref="K4:K7" si="3">"{name:"&amp;E4&amp;", category: "&amp;C4&amp;", price: "&amp;F4&amp;", id: "&amp;H4&amp;", img: ""./media/vegetables/"&amp;D4&amp;"/1.jpg""},"</f>
-        <v>{name:"Edamame", category: "vegetables", price: 200, id: "301", img: "./media/vegetables/Edamame/1.jpg"},</v>
+      <c r="K4" s="9" t="str">
+        <f t="shared" ref="K4:K20" si="3">"{name:"&amp;E4&amp;", category: "&amp;C4&amp;", price: "&amp;F4&amp;", id: "&amp;H4&amp;", img: ""./media/meat/"&amp;D4&amp;"/1.jpg""},"</f>
+        <v>{name:"Breaded Chicken Chop", category: "meat", price: 200, id: "101", img: "./media/meat/Breaded Chicken Chop/1.jpg"},</v>
       </c>
       <c r="P4" s="3"/>
     </row>
@@ -873,39 +960,39 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>"vegetables"</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>15</v>
+        <v>"meat"</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="E5" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>"Edamame (peeled)"</v>
-      </c>
-      <c r="F5" s="6">
+        <v>"Chicken Burger Patty"</v>
+      </c>
+      <c r="F5" s="13">
         <v>200</v>
       </c>
       <c r="G5" s="5">
-        <v>302</v>
+        <v>102</v>
       </c>
       <c r="H5" s="6" t="str">
         <f t="shared" si="2"/>
-        <v>"302"</v>
+        <v>"102"</v>
       </c>
       <c r="I5" s="7" t="str">
-        <f t="shared" ref="I5:I13" si="4">"./media/"&amp;E5&amp;"/1.jpg"</f>
-        <v>./media/"Edamame (peeled)"/1.jpg</v>
+        <f t="shared" ref="I5:I20" si="4">"./media/"&amp;E5&amp;"/1.jpg"</f>
+        <v>./media/"Chicken Burger Patty"/1.jpg</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>{name:"Edamame (peeled)", category: "vegetables", price: 200, id: "302", img: "./media/vegetables/Edamame (peeled)/1.jpg"},</v>
+      <c r="K5" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:"Chicken Burger Patty", category: "meat", price: 200, id: "102", img: "./media/meat/Chicken Burger Patty/1.jpg"},</v>
       </c>
       <c r="P5" s="3"/>
     </row>
@@ -914,39 +1001,39 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>"vegetables"</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>16</v>
+        <v>"meat"</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="E6" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>"French Fries (Crinkle Cut)"</v>
-      </c>
-      <c r="F6" s="6">
+        <v>"Chicken Nuggets Tempura"</v>
+      </c>
+      <c r="F6" s="13">
         <v>200</v>
       </c>
       <c r="G6" s="5">
-        <v>303</v>
+        <v>103</v>
       </c>
       <c r="H6" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>"303"</v>
+        <f t="shared" ref="H6:H20" si="5">""&amp;J6&amp;""&amp;G6&amp;""&amp;J6&amp;""</f>
+        <v>"103"</v>
       </c>
       <c r="I6" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>./media/"French Fries (Crinkle Cut)"/1.jpg</v>
+        <v>./media/"Chicken Nuggets Tempura"/1.jpg</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>{name:"French Fries (Crinkle Cut)", category: "vegetables", price: 200, id: "303", img: "./media/vegetables/French Fries (Crinkle Cut)/1.jpg"},</v>
+      <c r="K6" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:"Chicken Nuggets Tempura", category: "meat", price: 200, id: "103", img: "./media/meat/Chicken Nuggets Tempura/1.jpg"},</v>
       </c>
       <c r="P6" s="3"/>
     </row>
@@ -955,39 +1042,39 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>"vegetables"</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>17</v>
+        <v>"meat"</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>101</v>
       </c>
       <c r="E7" s="6" t="str">
         <f t="shared" si="1"/>
-        <v>"French Fries (Shoestring)"</v>
-      </c>
-      <c r="F7" s="6">
+        <v>"Crispy Popcorn Chicken"</v>
+      </c>
+      <c r="F7" s="13">
         <v>200</v>
       </c>
       <c r="G7" s="5">
-        <v>304</v>
+        <v>104</v>
       </c>
       <c r="H7" s="6" t="str">
-        <f t="shared" si="2"/>
-        <v>"304"</v>
+        <f t="shared" si="5"/>
+        <v>"104"</v>
       </c>
       <c r="I7" s="7" t="str">
         <f t="shared" si="4"/>
-        <v>./media/"French Fries (Shoestring)"/1.jpg</v>
+        <v>./media/"Crispy Popcorn Chicken"/1.jpg</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K7" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>{name:"French Fries (Shoestring)", category: "vegetables", price: 200, id: "304", img: "./media/vegetables/French Fries (Shoestring)/1.jpg"},</v>
+      <c r="K7" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:"Crispy Popcorn Chicken", category: "meat", price: 200, id: "104", img: "./media/meat/Crispy Popcorn Chicken/1.jpg"},</v>
       </c>
       <c r="P7" s="3"/>
     </row>
@@ -995,16 +1082,40 @@
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="7"/>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>"meat"</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>"Meatballs"</v>
+      </c>
+      <c r="F8" s="13">
+        <v>200</v>
+      </c>
+      <c r="G8" s="5">
+        <v>105</v>
+      </c>
+      <c r="H8" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>"105"</v>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>./media/"Meatballs"/1.jpg</v>
+      </c>
       <c r="J8" s="8" t="s">
         <v>2</v>
+      </c>
+      <c r="K8" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:"Meatballs", category: "meat", price: 200, id: "105", img: "./media/meat/Meatballs/1.jpg"},</v>
       </c>
       <c r="P8" s="3"/>
     </row>
@@ -1012,16 +1123,40 @@
       <c r="A9" s="5">
         <v>7</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
+      <c r="B9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>"meat"</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>"Miami Butcher Chicken Ham (Sliced)"</v>
+      </c>
+      <c r="F9" s="13">
+        <v>200</v>
+      </c>
+      <c r="G9" s="5">
+        <v>106</v>
+      </c>
+      <c r="H9" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>"106"</v>
+      </c>
+      <c r="I9" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>./media/"Miami Butcher Chicken Ham (Sliced)"/1.jpg</v>
+      </c>
       <c r="J9" s="8" t="s">
         <v>2</v>
+      </c>
+      <c r="K9" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:"Miami Butcher Chicken Ham (Sliced)", category: "meat", price: 200, id: "106", img: "./media/meat/Miami Butcher Chicken Ham (Sliced)/1.jpg"},</v>
       </c>
       <c r="P9" s="3"/>
     </row>
@@ -1029,16 +1164,40 @@
       <c r="A10" s="5">
         <v>8</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>"meat"</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>"Miami Butcher Chicken Sausage Breakfast"</v>
+      </c>
+      <c r="F10" s="13">
+        <v>200</v>
+      </c>
+      <c r="G10" s="5">
+        <v>107</v>
+      </c>
+      <c r="H10" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>"107"</v>
+      </c>
+      <c r="I10" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>./media/"Miami Butcher Chicken Sausage Breakfast"/1.jpg</v>
+      </c>
       <c r="J10" s="8" t="s">
         <v>2</v>
+      </c>
+      <c r="K10" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:"Miami Butcher Chicken Sausage Breakfast", category: "meat", price: 200, id: "107", img: "./media/meat/Miami Butcher Chicken Sausage Breakfast/1.jpg"},</v>
       </c>
       <c r="P10" s="3"/>
     </row>
@@ -1046,16 +1205,40 @@
       <c r="A11" s="5">
         <v>9</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>"meat"</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>"Miami Butcher Chicken Sausage Jumbo"</v>
+      </c>
+      <c r="F11" s="13">
+        <v>200</v>
+      </c>
+      <c r="G11" s="5">
+        <v>108</v>
+      </c>
+      <c r="H11" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>"108"</v>
+      </c>
+      <c r="I11" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>./media/"Miami Butcher Chicken Sausage Jumbo"/1.jpg</v>
+      </c>
       <c r="J11" s="8" t="s">
         <v>2</v>
+      </c>
+      <c r="K11" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:"Miami Butcher Chicken Sausage Jumbo", category: "meat", price: 200, id: "108", img: "./media/meat/Miami Butcher Chicken Sausage Jumbo/1.jpg"},</v>
       </c>
       <c r="P11" s="3"/>
     </row>
@@ -1063,16 +1246,40 @@
       <c r="A12" s="5">
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
+      <c r="B12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>"meat"</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>"Miami Butcher Turkey Bacon (Sliced)"</v>
+      </c>
+      <c r="F12" s="13">
+        <v>200</v>
+      </c>
+      <c r="G12" s="5">
+        <v>109</v>
+      </c>
+      <c r="H12" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>"109"</v>
+      </c>
+      <c r="I12" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>./media/"Miami Butcher Turkey Bacon (Sliced)"/1.jpg</v>
+      </c>
       <c r="J12" s="8" t="s">
         <v>2</v>
+      </c>
+      <c r="K12" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:"Miami Butcher Turkey Bacon (Sliced)", category: "meat", price: 200, id: "109", img: "./media/meat/Miami Butcher Turkey Bacon (Sliced)/1.jpg"},</v>
       </c>
       <c r="P12" s="3"/>
     </row>
@@ -1080,16 +1287,40 @@
       <c r="A13" s="5">
         <v>11</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>"meat"</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>"Mince Meat 300g"</v>
+      </c>
+      <c r="F13" s="13">
+        <v>200</v>
+      </c>
+      <c r="G13" s="5">
+        <v>110</v>
+      </c>
+      <c r="H13" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>"110"</v>
+      </c>
+      <c r="I13" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>./media/"Mince Meat 300g"/1.jpg</v>
+      </c>
       <c r="J13" s="8" t="s">
         <v>2</v>
+      </c>
+      <c r="K13" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:"Mince Meat 300g", category: "meat", price: 200, id: "110", img: "./media/meat/Mince Meat 300g/1.jpg"},</v>
       </c>
       <c r="P13" s="3"/>
     </row>
@@ -1097,16 +1328,40 @@
       <c r="A14" s="5">
         <v>12</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="B14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>"meat"</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>"Mince Meat 600g"</v>
+      </c>
+      <c r="F14" s="13">
+        <v>200</v>
+      </c>
+      <c r="G14" s="5">
+        <v>111</v>
+      </c>
+      <c r="H14" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>"111"</v>
+      </c>
+      <c r="I14" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>./media/"Mince Meat 600g"/1.jpg</v>
+      </c>
       <c r="J14" s="8" t="s">
         <v>2</v>
+      </c>
+      <c r="K14" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:"Mince Meat 600g", category: "meat", price: 200, id: "111", img: "./media/meat/Mince Meat 600g/1.jpg"},</v>
       </c>
       <c r="P14" s="3"/>
     </row>
@@ -1114,16 +1369,40 @@
       <c r="A15" s="5">
         <v>13</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>"meat"</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>"Pork Stomach"</v>
+      </c>
+      <c r="F15" s="13">
+        <v>200</v>
+      </c>
+      <c r="G15" s="5">
+        <v>112</v>
+      </c>
+      <c r="H15" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>"112"</v>
+      </c>
+      <c r="I15" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>./media/"Pork Stomach"/1.jpg</v>
+      </c>
       <c r="J15" s="8" t="s">
         <v>2</v>
+      </c>
+      <c r="K15" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:"Pork Stomach", category: "meat", price: 200, id: "112", img: "./media/meat/Pork Stomach/1.jpg"},</v>
       </c>
       <c r="P15" s="3"/>
     </row>
@@ -1131,16 +1410,40 @@
       <c r="A16" s="5">
         <v>14</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="B16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>"meat"</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>"Pork Tendon"</v>
+      </c>
+      <c r="F16" s="13">
+        <v>200</v>
+      </c>
+      <c r="G16" s="5">
+        <v>113</v>
+      </c>
+      <c r="H16" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>"113"</v>
+      </c>
+      <c r="I16" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>./media/"Pork Tendon"/1.jpg</v>
+      </c>
       <c r="J16" s="8" t="s">
         <v>2</v>
+      </c>
+      <c r="K16" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:"Pork Tendon", category: "meat", price: 200, id: "113", img: "./media/meat/Pork Tendon/1.jpg"},</v>
       </c>
       <c r="P16" s="3"/>
     </row>
@@ -1148,16 +1451,40 @@
       <c r="A17" s="5">
         <v>15</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="B17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>"meat"</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>"Shabu Shabu Pork"</v>
+      </c>
+      <c r="F17" s="13">
+        <v>200</v>
+      </c>
+      <c r="G17" s="5">
+        <v>114</v>
+      </c>
+      <c r="H17" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>"114"</v>
+      </c>
+      <c r="I17" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>./media/"Shabu Shabu Pork"/1.jpg</v>
+      </c>
       <c r="J17" s="8" t="s">
         <v>2</v>
+      </c>
+      <c r="K17" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:"Shabu Shabu Pork", category: "meat", price: 200, id: "114", img: "./media/meat/Shabu Shabu Pork/1.jpg"},</v>
       </c>
       <c r="P17" s="3"/>
     </row>
@@ -1165,16 +1492,40 @@
       <c r="A18" s="5">
         <v>16</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>"meat"</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>"Shabu Shabu Pork Belly"</v>
+      </c>
+      <c r="F18" s="13">
+        <v>200</v>
+      </c>
+      <c r="G18" s="5">
+        <v>115</v>
+      </c>
+      <c r="H18" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>"115"</v>
+      </c>
+      <c r="I18" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>./media/"Shabu Shabu Pork Belly"/1.jpg</v>
+      </c>
       <c r="J18" s="8" t="s">
         <v>2</v>
+      </c>
+      <c r="K18" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:"Shabu Shabu Pork Belly", category: "meat", price: 200, id: "115", img: "./media/meat/Shabu Shabu Pork Belly/1.jpg"},</v>
       </c>
       <c r="P18" s="3"/>
     </row>
@@ -1182,16 +1533,40 @@
       <c r="A19" s="5">
         <v>17</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="B19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>"meat"</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>"Smoked Back Bacon"</v>
+      </c>
+      <c r="F19" s="13">
+        <v>200</v>
+      </c>
+      <c r="G19" s="5">
+        <v>116</v>
+      </c>
+      <c r="H19" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>"116"</v>
+      </c>
+      <c r="I19" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>./media/"Smoked Back Bacon"/1.jpg</v>
+      </c>
       <c r="J19" s="8" t="s">
         <v>2</v>
+      </c>
+      <c r="K19" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:"Smoked Back Bacon", category: "meat", price: 200, id: "116", img: "./media/meat/Smoked Back Bacon/1.jpg"},</v>
       </c>
       <c r="P19" s="3"/>
     </row>
@@ -1199,16 +1574,40 @@
       <c r="A20" s="5">
         <v>18</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="B20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>"meat"</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>"Smoked Duck"</v>
+      </c>
+      <c r="F20" s="13">
+        <v>200</v>
+      </c>
+      <c r="G20" s="5">
+        <v>117</v>
+      </c>
+      <c r="H20" s="6" t="str">
+        <f t="shared" si="5"/>
+        <v>"117"</v>
+      </c>
+      <c r="I20" s="7" t="str">
+        <f t="shared" si="4"/>
+        <v>./media/"Smoked Duck"/1.jpg</v>
+      </c>
       <c r="J20" s="8" t="s">
         <v>2</v>
+      </c>
+      <c r="K20" s="9" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:"Smoked Duck", category: "meat", price: 200, id: "117", img: "./media/meat/Smoked Duck/1.jpg"},</v>
       </c>
       <c r="P20" s="3"/>
     </row>
@@ -1218,9 +1617,9 @@
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="10"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="F21" s="13"/>
       <c r="G21" s="6"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -1235,9 +1634,9 @@
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="10"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="F22" s="13"/>
       <c r="G22" s="6"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -1252,9 +1651,9 @@
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="10"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="F23" s="13"/>
       <c r="G23" s="6"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -1269,9 +1668,9 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="10"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="F24" s="13"/>
       <c r="G24" s="6"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -1286,9 +1685,9 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="10"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="6"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -1303,9 +1702,9 @@
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="10"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="F26" s="13"/>
       <c r="G26" s="6"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -1320,9 +1719,9 @@
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="10"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="F27" s="13"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -1337,9 +1736,9 @@
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="10"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="6"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -1354,9 +1753,9 @@
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="10"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="F29" s="13"/>
       <c r="G29" s="6"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -1371,9 +1770,9 @@
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="10"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="F30" s="13"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -1388,9 +1787,9 @@
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="10"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="F31" s="13"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -1405,9 +1804,9 @@
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="10"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="F32" s="13"/>
       <c r="G32" s="6"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -1423,19 +1822,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E935931-FAA4-FA4C-A5B5-294B876F1358}">
-  <dimension ref="A1:T83"/>
+  <dimension ref="A1:T87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K83" sqref="K3:K83"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="3" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" style="5"/>
-    <col min="4" max="4" width="36.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.7109375" style="5"/>
+    <col min="6" max="6" width="10.7109375" style="14"/>
+    <col min="7" max="8" width="10.7109375" style="5"/>
     <col min="9" max="9" width="28.42578125" style="5" customWidth="1"/>
     <col min="10" max="10" width="1.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="96.85546875" bestFit="1" customWidth="1"/>
@@ -1443,7 +1843,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="F1" s="13"/>
       <c r="G1" s="6"/>
       <c r="H1" s="7"/>
       <c r="I1" s="7"/>
@@ -1461,15 +1861,15 @@
       <c r="E2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="3"/>
@@ -1486,20 +1886,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="5" t="str">
         <f>""&amp;J3&amp;""&amp;B3&amp;""&amp;J3&amp;""</f>
         <v>"seafood"</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>19</v>
+      <c r="D3" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="E3" s="6" t="str">
         <f>""&amp;J3&amp;""&amp;D3&amp;""&amp;J3&amp;""</f>
         <v>"Abalone Can"</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="13">
         <v>200</v>
       </c>
       <c r="G3" s="5">
@@ -1535,20 +1935,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5" t="str">
-        <f t="shared" ref="C4:C7" si="0">""&amp;J4&amp;""&amp;B4&amp;""&amp;J4&amp;""</f>
-        <v>"seafood"</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>20</v>
+        <f t="shared" ref="C4:C6" si="0">""&amp;J4&amp;""&amp;B4&amp;""&amp;J4&amp;""</f>
+        <v>"seafood"</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="E4" s="6" t="str">
-        <f t="shared" ref="E4:E32" si="1">""&amp;J4&amp;""&amp;D4&amp;""&amp;J4&amp;""</f>
+        <f t="shared" ref="E4:E8" si="1">""&amp;J4&amp;""&amp;D4&amp;""&amp;J4&amp;""</f>
         <v>"Abalone Slice"</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="13">
         <v>200</v>
       </c>
       <c r="G4" s="5">
@@ -1566,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="K4" s="2" t="str">
-        <f t="shared" ref="K4:K67" si="3">"{name:"&amp;E4&amp;", category: "&amp;C4&amp;", price: "&amp;F4&amp;", id: "&amp;H4&amp;", img: ""./media/seafood/"&amp;D4&amp;"/1.jpg""},"</f>
+        <f t="shared" ref="K4:K70" si="3">"{name:"&amp;E4&amp;", category: "&amp;C4&amp;", price: "&amp;F4&amp;", id: "&amp;H4&amp;", img: ""./media/seafood/"&amp;D4&amp;"/1.jpg""},"</f>
         <v>{name:"Abalone Slice", category: "seafood", price: 200, id: "201", img: "./media/seafood/Abalone Slice/1.jpg"},</v>
       </c>
       <c r="L4" s="3"/>
@@ -1584,20 +1984,20 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>"seafood"</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>21</v>
+      <c r="D5" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="E5" s="6" t="str">
         <f t="shared" si="1"/>
         <v>"Alaskan King Crab"</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="13">
         <v>200</v>
       </c>
       <c r="G5" s="5">
@@ -1608,7 +2008,7 @@
         <v>"202"</v>
       </c>
       <c r="I5" s="7" t="str">
-        <f t="shared" ref="I5:I32" si="4">"./media/"&amp;E5&amp;"/1.jpg"</f>
+        <f t="shared" ref="I5:I9" si="4">"./media/"&amp;E5&amp;"/1.jpg"</f>
         <v>./media/"Alaskan King Crab"/1.jpg</v>
       </c>
       <c r="J5" s="8" t="s">
@@ -1633,20 +2033,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>"seafood"</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>22</v>
+      <c r="D6" s="11" t="s">
+        <v>23</v>
       </c>
       <c r="E6" s="6" t="str">
         <f t="shared" si="1"/>
         <v>"Baby Octopus"</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="13">
         <v>200</v>
       </c>
       <c r="G6" s="5">
@@ -1682,20 +2082,20 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="5" t="str">
-        <f t="shared" ref="C7:C70" si="5">""&amp;J7&amp;""&amp;B7&amp;""&amp;J7&amp;""</f>
-        <v>"seafood"</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>23</v>
+        <f t="shared" ref="C7:C73" si="5">""&amp;J7&amp;""&amp;B7&amp;""&amp;J7&amp;""</f>
+        <v>"seafood"</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="E7" s="6" t="str">
         <f t="shared" si="1"/>
         <v>"Breaded Cod Fish"</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="13">
         <v>200</v>
       </c>
       <c r="G7" s="5">
@@ -1731,20 +2131,20 @@
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" s="5" t="str">
         <f t="shared" si="5"/>
         <v>"seafood"</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>24</v>
+      <c r="D8" s="11" t="s">
+        <v>25</v>
       </c>
       <c r="E8" s="6" t="str">
         <f t="shared" si="1"/>
         <v>"Breaded Scallops"</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="13">
         <v>200</v>
       </c>
       <c r="G8" s="5">
@@ -1780,27 +2180,27 @@
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" s="5" t="str">
         <f t="shared" si="5"/>
         <v>"seafood"</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>25</v>
+      <c r="D9" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="E9" s="6" t="str">
-        <f t="shared" ref="E9:E72" si="6">""&amp;J9&amp;""&amp;D9&amp;""&amp;J9&amp;""</f>
+        <f t="shared" ref="E9:E75" si="6">""&amp;J9&amp;""&amp;D9&amp;""&amp;J9&amp;""</f>
         <v>"Canadian Scallops"</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="13">
         <v>200</v>
       </c>
       <c r="G9" s="5">
         <v>206</v>
       </c>
       <c r="H9" s="6" t="str">
-        <f t="shared" ref="H9:H72" si="7">""&amp;J9&amp;""&amp;G9&amp;""&amp;J9&amp;""</f>
+        <f t="shared" ref="H9:H75" si="7">""&amp;J9&amp;""&amp;G9&amp;""&amp;J9&amp;""</f>
         <v>"206"</v>
       </c>
       <c r="I9" s="7" t="str">
@@ -1829,20 +2229,20 @@
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="5" t="str">
         <f t="shared" si="5"/>
         <v>"seafood"</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>26</v>
+      <c r="D10" s="11" t="s">
+        <v>27</v>
       </c>
       <c r="E10" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Caviar"</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="13">
         <v>200</v>
       </c>
       <c r="G10" s="5">
@@ -1853,7 +2253,7 @@
         <v>"207"</v>
       </c>
       <c r="I10" s="7" t="str">
-        <f t="shared" ref="I10:I73" si="8">"./media/"&amp;E10&amp;"/1.jpg"</f>
+        <f t="shared" ref="I10:I76" si="8">"./media/"&amp;E10&amp;"/1.jpg"</f>
         <v>./media/"Caviar"/1.jpg</v>
       </c>
       <c r="J10" s="8" t="s">
@@ -1878,20 +2278,20 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11" s="5" t="str">
         <f t="shared" si="5"/>
         <v>"seafood"</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>27</v>
+      <c r="D11" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="E11" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Chuka Hotate"</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="13">
         <v>200</v>
       </c>
       <c r="G11" s="5">
@@ -1927,20 +2327,20 @@
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12" s="5" t="str">
         <f t="shared" si="5"/>
         <v>"seafood"</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>28</v>
+      <c r="D12" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="E12" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Chuka Idako (Seasoned Baby Octopus) 2kg"</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="13">
         <v>200</v>
       </c>
       <c r="G12" s="5">
@@ -1976,20 +2376,20 @@
         <v>11</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" s="5" t="str">
         <f t="shared" si="5"/>
         <v>"seafood"</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>29</v>
+      <c r="D13" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="E13" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Chuka Idako (Seasoned Baby Octopus) 500g"</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="13">
         <v>200</v>
       </c>
       <c r="G13" s="5">
@@ -2025,20 +2425,20 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C14" s="5" t="str">
         <f t="shared" si="5"/>
         <v>"seafood"</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>30</v>
+      <c r="D14" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="E14" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Chuka Wakame"</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="13">
         <v>200</v>
       </c>
       <c r="G14" s="5">
@@ -2074,20 +2474,20 @@
         <v>13</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C15" s="5" t="str">
         <f t="shared" si="5"/>
         <v>"seafood"</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>32</v>
+      <c r="D15" s="11" t="s">
+        <v>33</v>
       </c>
       <c r="E15" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Clam (lala)"</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="13">
         <v>200</v>
       </c>
       <c r="G15" s="5">
@@ -2123,20 +2523,20 @@
         <v>14</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" s="5" t="str">
         <f t="shared" si="5"/>
         <v>"seafood"</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>31</v>
+      <c r="D16" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="E16" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Cod Fillet (Miso)"</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="13">
         <v>200</v>
       </c>
       <c r="G16" s="5">
@@ -2172,20 +2572,20 @@
         <v>15</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="5" t="str">
         <f t="shared" si="5"/>
         <v>"seafood"</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>98</v>
+      <c r="D17" s="11" t="s">
+        <v>96</v>
       </c>
       <c r="E17" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Cod Fish"</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="13">
         <v>200</v>
       </c>
       <c r="G17" s="5">
@@ -2221,20 +2621,20 @@
         <v>16</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="5" t="str">
         <f t="shared" si="5"/>
         <v>"seafood"</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>33</v>
+      <c r="D18" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="E18" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Crab Meat (Mix)"</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="13">
         <v>200</v>
       </c>
       <c r="G18" s="5">
@@ -2270,20 +2670,20 @@
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19" s="5" t="str">
         <f t="shared" si="5"/>
         <v>"seafood"</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>34</v>
+      <c r="D19" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="E19" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Crab meat (Red) 400g"</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="13">
         <v>200</v>
       </c>
       <c r="G19" s="5">
@@ -2319,20 +2719,20 @@
         <v>18</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C20" s="5" t="str">
         <f t="shared" si="5"/>
         <v>"seafood"</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>35</v>
+      <c r="D20" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="E20" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Crab Meat (Red) 800g"</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="13">
         <v>200</v>
       </c>
       <c r="G20" s="5">
@@ -2368,20 +2768,20 @@
         <v>19</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C21" s="5" t="str">
         <f t="shared" si="5"/>
         <v>"seafood"</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>36</v>
+      <c r="D21" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="E21" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Crab Meat (White) 400g"</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="13">
         <v>200</v>
       </c>
       <c r="G21" s="5">
@@ -2417,20 +2817,20 @@
         <v>20</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C22" s="5" t="str">
         <f t="shared" si="5"/>
         <v>"seafood"</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>37</v>
+      <c r="D22" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="E22" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Crab Meat (White) 800g"</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="13">
         <v>200</v>
       </c>
       <c r="G22" s="5">
@@ -2466,20 +2866,20 @@
         <v>21</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" s="5" t="str">
         <f t="shared" si="5"/>
         <v>"seafood"</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>38</v>
+      <c r="D23" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="E23" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Ebi Tempura"</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="13">
         <v>200</v>
       </c>
       <c r="G23" s="5">
@@ -2515,20 +2915,20 @@
         <v>22</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" s="5" t="str">
         <f t="shared" si="5"/>
         <v>"seafood"</v>
       </c>
-      <c r="D24" s="10" t="s">
-        <v>39</v>
+      <c r="D24" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="E24" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Ebiko Orange"</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="13">
         <v>200</v>
       </c>
       <c r="G24" s="5">
@@ -2564,20 +2964,20 @@
         <v>23</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="5" t="str">
         <f t="shared" si="5"/>
         <v>"seafood"</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>40</v>
+      <c r="D25" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="E25" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Fish Maw"</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="13">
         <v>200</v>
       </c>
       <c r="G25" s="5">
@@ -2613,20 +3013,20 @@
         <v>24</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" s="5" t="str">
         <f t="shared" si="5"/>
         <v>"seafood"</v>
       </c>
-      <c r="D26" s="10" t="s">
-        <v>41</v>
+      <c r="D26" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="E26" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Flower Squid"</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="13">
         <v>200</v>
       </c>
       <c r="G26" s="5">
@@ -2662,20 +3062,20 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" s="5" t="str">
         <f t="shared" si="5"/>
         <v>"seafood"</v>
       </c>
-      <c r="D27" s="10" t="s">
-        <v>42</v>
+      <c r="D27" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="E27" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Fo Tiao Qiang"</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="13">
         <v>200</v>
       </c>
       <c r="G27" s="5">
@@ -2711,20 +3111,20 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C28" s="5" t="str">
         <f t="shared" si="5"/>
         <v>"seafood"</v>
       </c>
-      <c r="D28" s="10" t="s">
-        <v>43</v>
+      <c r="D28" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="E28" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Garlic Crayfish Whole 700g"</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="13">
         <v>200</v>
       </c>
       <c r="G28" s="5">
@@ -2760,20 +3160,20 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" s="5" t="str">
         <f t="shared" si="5"/>
         <v>"seafood"</v>
       </c>
-      <c r="D29" s="10" t="s">
-        <v>44</v>
+      <c r="D29" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="E29" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Half Shell Scallop"</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="13">
         <v>200</v>
       </c>
       <c r="G29" s="5">
@@ -2809,20 +3209,20 @@
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C30" s="5" t="str">
         <f t="shared" si="5"/>
         <v>"seafood"</v>
       </c>
-      <c r="D30" s="10" t="s">
-        <v>45</v>
+      <c r="D30" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="E30" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Half Shell Scallop (Pink)"</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="13">
         <v>200</v>
       </c>
       <c r="G30" s="5">
@@ -2858,20 +3258,20 @@
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C31" s="5" t="str">
         <f t="shared" si="5"/>
         <v>"seafood"</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>46</v>
+      <c r="D31" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="E31" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Halibut Fillet"</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="13">
         <v>200</v>
       </c>
       <c r="G31" s="5">
@@ -2907,20 +3307,20 @@
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C32" s="5" t="str">
         <f t="shared" si="5"/>
         <v>"seafood"</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>47</v>
+      <c r="D32" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E32" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Halibut Fillet (Miso)"</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="13">
         <v>200</v>
       </c>
       <c r="G32" s="5">
@@ -2956,20 +3356,20 @@
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" s="5" t="str">
         <f t="shared" si="5"/>
         <v>"seafood"</v>
       </c>
-      <c r="D33" s="10" t="s">
-        <v>48</v>
+      <c r="D33" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="E33" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Halibut Steak"</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="13">
         <v>200</v>
       </c>
       <c r="G33" s="5">
@@ -2996,20 +3396,20 @@
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" s="5" t="str">
         <f t="shared" si="5"/>
         <v>"seafood"</v>
       </c>
-      <c r="D34" s="10" t="s">
-        <v>49</v>
+      <c r="D34" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="E34" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>"Hokkaido Scallops"</v>
-      </c>
-      <c r="F34" s="6">
+        <v>"Hokkaido Scallops (S)"</v>
+      </c>
+      <c r="F34" s="13">
         <v>200</v>
       </c>
       <c r="G34" s="5">
@@ -3021,14 +3421,14 @@
       </c>
       <c r="I34" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>./media/"Hokkaido Scallops"/1.jpg</v>
+        <v>./media/"Hokkaido Scallops (S)"/1.jpg</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K34" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Hokkaido Scallops", category: "seafood", price: 200, id: "231", img: "./media/seafood/Hokkaido Scallops/1.jpg"},</v>
+        <v>{name:"Hokkaido Scallops (S)", category: "seafood", price: 200, id: "231", img: "./media/seafood/Hokkaido Scallops (S)/1.jpg"},</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3036,39 +3436,39 @@
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C35" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>50</v>
+        <f t="shared" ref="C35:C37" si="9">""&amp;J35&amp;""&amp;B35&amp;""&amp;J35&amp;""</f>
+        <v>"seafood"</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>46</v>
       </c>
       <c r="E35" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>"Imitation Shark Fin"</v>
-      </c>
-      <c r="F35" s="6">
+        <f t="shared" ref="E35:E37" si="10">""&amp;J35&amp;""&amp;D35&amp;""&amp;J35&amp;""</f>
+        <v>"Half Shell Scallop (Pink)"</v>
+      </c>
+      <c r="F35" s="13">
         <v>200</v>
       </c>
       <c r="G35" s="5">
         <v>232</v>
       </c>
       <c r="H35" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="H35:H37" si="11">""&amp;J35&amp;""&amp;G35&amp;""&amp;J35&amp;""</f>
         <v>"232"</v>
       </c>
       <c r="I35" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>./media/"Imitation Shark Fin"/1.jpg</v>
+        <f t="shared" ref="I35:I37" si="12">"./media/"&amp;E35&amp;"/1.jpg"</f>
+        <v>./media/"Half Shell Scallop (Pink)"/1.jpg</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K35" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>{name:"Imitation Shark Fin", category: "seafood", price: 200, id: "232", img: "./media/seafood/Imitation Shark Fin/1.jpg"},</v>
+        <f t="shared" ref="K35:K37" si="13">"{name:"&amp;E35&amp;", category: "&amp;C35&amp;", price: "&amp;F35&amp;", id: "&amp;H35&amp;", img: ""./media/seafood/"&amp;D35&amp;"/1.jpg""},"</f>
+        <v>{name:"Half Shell Scallop (Pink)", category: "seafood", price: 200, id: "232", img: "./media/seafood/Half Shell Scallop (Pink)/1.jpg"},</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3076,39 +3476,39 @@
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D36" s="10" t="s">
-        <v>51</v>
+        <f t="shared" si="9"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>47</v>
       </c>
       <c r="E36" s="6" t="str">
-        <f t="shared" si="6"/>
-        <v>"Japan King Crab Filament Stick"</v>
-      </c>
-      <c r="F36" s="6">
+        <f t="shared" si="10"/>
+        <v>"Halibut Fillet"</v>
+      </c>
+      <c r="F36" s="13">
         <v>200</v>
       </c>
       <c r="G36" s="5">
         <v>233</v>
       </c>
       <c r="H36" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>"233"</v>
       </c>
       <c r="I36" s="7" t="str">
-        <f t="shared" si="8"/>
-        <v>./media/"Japan King Crab Filament Stick"/1.jpg</v>
+        <f t="shared" si="12"/>
+        <v>./media/"Halibut Fillet"/1.jpg</v>
       </c>
       <c r="J36" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K36" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>{name:"Japan King Crab Filament Stick", category: "seafood", price: 200, id: "233", img: "./media/seafood/Japan King Crab Filament Stick/1.jpg"},</v>
+        <f t="shared" si="13"/>
+        <v>{name:"Halibut Fillet", category: "seafood", price: 200, id: "233", img: "./media/seafood/Halibut Fillet/1.jpg"},</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3116,1878 +3516,2035 @@
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D37" s="10" t="s">
+        <f t="shared" si="9"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E37" s="6" t="str">
+        <f t="shared" si="10"/>
+        <v>"Halibut Fillet (Miso)"</v>
+      </c>
+      <c r="F37" s="13">
+        <v>200</v>
+      </c>
+      <c r="G37" s="5">
+        <v>234</v>
+      </c>
+      <c r="H37" s="6" t="str">
+        <f t="shared" si="11"/>
+        <v>"234"</v>
+      </c>
+      <c r="I37" s="7" t="str">
+        <f t="shared" si="12"/>
+        <v>./media/"Halibut Fillet (Miso)"/1.jpg</v>
+      </c>
+      <c r="J37" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K37" s="2" t="str">
+        <f t="shared" si="13"/>
+        <v>{name:"Halibut Fillet (Miso)", category: "seafood", price: 200, id: "234", img: "./media/seafood/Halibut Fillet (Miso)/1.jpg"},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="5">
+        <v>33</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>"Imitation Shark Fin"</v>
+      </c>
+      <c r="F38" s="13">
+        <v>200</v>
+      </c>
+      <c r="G38" s="5">
+        <v>232</v>
+      </c>
+      <c r="H38" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>"232"</v>
+      </c>
+      <c r="I38" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>./media/"Imitation Shark Fin"/1.jpg</v>
+      </c>
+      <c r="J38" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K38" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:"Imitation Shark Fin", category: "seafood", price: 200, id: "232", img: "./media/seafood/Imitation Shark Fin/1.jpg"},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="5">
+        <v>34</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E39" s="6" t="str">
+        <f t="shared" si="6"/>
+        <v>"Japan King Crab Filament Stick"</v>
+      </c>
+      <c r="F39" s="13">
+        <v>200</v>
+      </c>
+      <c r="G39" s="5">
+        <v>233</v>
+      </c>
+      <c r="H39" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>"233"</v>
+      </c>
+      <c r="I39" s="7" t="str">
+        <f t="shared" si="8"/>
+        <v>./media/"Japan King Crab Filament Stick"/1.jpg</v>
+      </c>
+      <c r="J39" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K39" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:"Japan King Crab Filament Stick", category: "seafood", price: 200, id: "233", img: "./media/seafood/Japan King Crab Filament Stick/1.jpg"},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="5">
+        <v>35</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E37" s="6" t="str">
+      <c r="E40" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Japan Tamagoyaki"</v>
       </c>
-      <c r="F37" s="6">
-        <v>200</v>
-      </c>
-      <c r="G37" s="5">
+      <c r="F40" s="13">
+        <v>200</v>
+      </c>
+      <c r="G40" s="5">
         <v>234</v>
       </c>
-      <c r="H37" s="6" t="str">
+      <c r="H40" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"234"</v>
       </c>
-      <c r="I37" s="7" t="str">
+      <c r="I40" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Japan Tamagoyaki"/1.jpg</v>
       </c>
-      <c r="J37" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K37" s="2" t="str">
+      <c r="J40" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K40" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{name:"Japan Tamagoyaki", category: "seafood", price: 200, id: "234", img: "./media/seafood/Japan Tamagoyaki/1.jpg"},</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="5">
+    <row r="41" spans="1:11">
+      <c r="A41" s="5">
         <v>36</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D38" s="10" t="s">
+      <c r="B41" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E38" s="6" t="str">
+      <c r="E41" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Japanese Hotate Scallop"</v>
       </c>
-      <c r="F38" s="6">
-        <v>200</v>
-      </c>
-      <c r="G38" s="5">
+      <c r="F41" s="13">
+        <v>200</v>
+      </c>
+      <c r="G41" s="5">
         <v>235</v>
       </c>
-      <c r="H38" s="6" t="str">
+      <c r="H41" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"235"</v>
       </c>
-      <c r="I38" s="7" t="str">
+      <c r="I41" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Japanese Hotate Scallop"/1.jpg</v>
       </c>
-      <c r="J38" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K38" s="2" t="str">
+      <c r="J41" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K41" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{name:"Japanese Hotate Scallop", category: "seafood", price: 200, id: "235", img: "./media/seafood/Japanese Hotate Scallop/1.jpg"},</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" s="5">
+    <row r="42" spans="1:11">
+      <c r="A42" s="5">
         <v>37</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C39" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D39" s="10" t="s">
+      <c r="B42" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D42" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="E39" s="6" t="str">
+      <c r="E42" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Lobster"</v>
       </c>
-      <c r="F39" s="6">
-        <v>200</v>
-      </c>
-      <c r="G39" s="5">
+      <c r="F42" s="13">
+        <v>200</v>
+      </c>
+      <c r="G42" s="5">
         <v>236</v>
       </c>
-      <c r="H39" s="6" t="str">
+      <c r="H42" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"236"</v>
       </c>
-      <c r="I39" s="7" t="str">
+      <c r="I42" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Lobster"/1.jpg</v>
       </c>
-      <c r="J39" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K39" s="2" t="str">
+      <c r="J42" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K42" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{name:"Lobster", category: "seafood", price: 200, id: "236", img: "./media/seafood/Lobster/1.jpg"},</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="5">
+    <row r="43" spans="1:11">
+      <c r="A43" s="5">
         <v>38</v>
       </c>
-      <c r="B40" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D40" s="10" t="s">
+      <c r="B43" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="6" t="str">
+      <c r="E43" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Mala Seafood"</v>
       </c>
-      <c r="F40" s="6">
-        <v>200</v>
-      </c>
-      <c r="G40" s="5">
+      <c r="F43" s="13">
+        <v>200</v>
+      </c>
+      <c r="G43" s="5">
         <v>237</v>
       </c>
-      <c r="H40" s="6" t="str">
+      <c r="H43" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"237"</v>
       </c>
-      <c r="I40" s="7" t="str">
+      <c r="I43" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Mala Seafood"/1.jpg</v>
       </c>
-      <c r="J40" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K40" s="2" t="str">
+      <c r="J43" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K43" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{name:"Mala Seafood", category: "seafood", price: 200, id: "237", img: "./media/seafood/Mala Seafood/1.jpg"},</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="5">
+    <row r="44" spans="1:11">
+      <c r="A44" s="5">
         <v>39</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D41" s="10" t="s">
+      <c r="B44" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D44" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E41" s="6" t="str">
+      <c r="E44" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Mantis Prawn Meat Fresh"</v>
       </c>
-      <c r="F41" s="6">
-        <v>200</v>
-      </c>
-      <c r="G41" s="5">
+      <c r="F44" s="13">
+        <v>200</v>
+      </c>
+      <c r="G44" s="5">
         <v>238</v>
       </c>
-      <c r="H41" s="6" t="str">
+      <c r="H44" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"238"</v>
       </c>
-      <c r="I41" s="7" t="str">
+      <c r="I44" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Mantis Prawn Meat Fresh"/1.jpg</v>
       </c>
-      <c r="J41" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K41" s="2" t="str">
+      <c r="J44" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K44" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{name:"Mantis Prawn Meat Fresh", category: "seafood", price: 200, id: "238", img: "./media/seafood/Mantis Prawn Meat Fresh/1.jpg"},</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="5">
+    <row r="45" spans="1:11">
+      <c r="A45" s="5">
         <v>40</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D42" s="10" t="s">
+      <c r="B45" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E42" s="6" t="str">
+      <c r="E45" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Nikudo Fish Paste"</v>
       </c>
-      <c r="F42" s="6">
-        <v>200</v>
-      </c>
-      <c r="G42" s="5">
+      <c r="F45" s="13">
+        <v>200</v>
+      </c>
+      <c r="G45" s="5">
         <v>239</v>
       </c>
-      <c r="H42" s="6" t="str">
+      <c r="H45" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"239"</v>
       </c>
-      <c r="I42" s="7" t="str">
+      <c r="I45" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Nikudo Fish Paste"/1.jpg</v>
       </c>
-      <c r="J42" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K42" s="2" t="str">
+      <c r="J45" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K45" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{name:"Nikudo Fish Paste", category: "seafood", price: 200, id: "239", img: "./media/seafood/Nikudo Fish Paste/1.jpg"},</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="5">
+    <row r="46" spans="1:11">
+      <c r="A46" s="5">
         <v>41</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C43" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D43" s="10" t="s">
+      <c r="B46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D46" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="6" t="str">
+      <c r="E46" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Patin Slice"</v>
       </c>
-      <c r="F43" s="6">
-        <v>200</v>
-      </c>
-      <c r="G43" s="5">
+      <c r="F46" s="13">
+        <v>200</v>
+      </c>
+      <c r="G46" s="5">
         <v>240</v>
       </c>
-      <c r="H43" s="6" t="str">
+      <c r="H46" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"240"</v>
       </c>
-      <c r="I43" s="7" t="str">
+      <c r="I46" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Patin Slice"/1.jpg</v>
       </c>
-      <c r="J43" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K43" s="2" t="str">
+      <c r="J46" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K46" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{name:"Patin Slice", category: "seafood", price: 200, id: "240", img: "./media/seafood/Patin Slice/1.jpg"},</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="5">
+    <row r="47" spans="1:11">
+      <c r="A47" s="5">
         <v>42</v>
       </c>
-      <c r="B44" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D44" s="10" t="s">
+      <c r="B47" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D47" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E44" s="6" t="str">
+      <c r="E47" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Prawn Meat (L)"</v>
       </c>
-      <c r="F44" s="6">
-        <v>200</v>
-      </c>
-      <c r="G44" s="5">
+      <c r="F47" s="13">
+        <v>200</v>
+      </c>
+      <c r="G47" s="5">
         <v>241</v>
       </c>
-      <c r="H44" s="6" t="str">
+      <c r="H47" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"241"</v>
       </c>
-      <c r="I44" s="7" t="str">
+      <c r="I47" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Prawn Meat (L)"/1.jpg</v>
       </c>
-      <c r="J44" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K44" s="2" t="str">
+      <c r="J47" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K47" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{name:"Prawn Meat (L)", category: "seafood", price: 200, id: "241", img: "./media/seafood/Prawn Meat (L)/1.jpg"},</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="5">
+    <row r="48" spans="1:11">
+      <c r="A48" s="5">
         <v>43</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D45" s="10" t="s">
+      <c r="B48" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D48" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E45" s="6" t="str">
+      <c r="E48" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Prawn Meat (M)"</v>
       </c>
-      <c r="F45" s="6">
-        <v>200</v>
-      </c>
-      <c r="G45" s="5">
+      <c r="F48" s="13">
+        <v>200</v>
+      </c>
+      <c r="G48" s="5">
         <v>242</v>
       </c>
-      <c r="H45" s="6" t="str">
+      <c r="H48" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"242"</v>
       </c>
-      <c r="I45" s="7" t="str">
+      <c r="I48" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Prawn Meat (M)"/1.jpg</v>
       </c>
-      <c r="J45" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K45" s="2" t="str">
+      <c r="J48" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K48" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{name:"Prawn Meat (M)", category: "seafood", price: 200, id: "242", img: "./media/seafood/Prawn Meat (M)/1.jpg"},</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="5">
+    <row r="49" spans="1:11">
+      <c r="A49" s="5">
         <v>44</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D46" s="10" t="s">
+      <c r="B49" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D49" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E46" s="6" t="str">
+      <c r="E49" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Prawn Meat (S)"</v>
       </c>
-      <c r="F46" s="6">
-        <v>200</v>
-      </c>
-      <c r="G46" s="5">
+      <c r="F49" s="13">
+        <v>200</v>
+      </c>
+      <c r="G49" s="5">
         <v>243</v>
       </c>
-      <c r="H46" s="6" t="str">
+      <c r="H49" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"243"</v>
       </c>
-      <c r="I46" s="7" t="str">
+      <c r="I49" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Prawn Meat (S)"/1.jpg</v>
       </c>
-      <c r="J46" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K46" s="2" t="str">
+      <c r="J49" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K49" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{name:"Prawn Meat (S)", category: "seafood", price: 200, id: "243", img: "./media/seafood/Prawn Meat (S)/1.jpg"},</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="5">
+    <row r="50" spans="1:11">
+      <c r="A50" s="5">
         <v>45</v>
       </c>
-      <c r="B47" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D47" s="10" t="s">
+      <c r="B50" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C50" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D50" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E47" s="6" t="str">
+      <c r="E50" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Prawn Meat (XS)"</v>
       </c>
-      <c r="F47" s="6">
-        <v>200</v>
-      </c>
-      <c r="G47" s="5">
+      <c r="F50" s="13">
+        <v>200</v>
+      </c>
+      <c r="G50" s="5">
         <v>244</v>
       </c>
-      <c r="H47" s="6" t="str">
+      <c r="H50" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"244"</v>
       </c>
-      <c r="I47" s="7" t="str">
+      <c r="I50" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Prawn Meat (XS)"/1.jpg</v>
       </c>
-      <c r="J47" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K47" s="2" t="str">
+      <c r="J50" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K50" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{name:"Prawn Meat (XS)", category: "seafood", price: 200, id: "244", img: "./media/seafood/Prawn Meat (XS)/1.jpg"},</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="5">
+    <row r="51" spans="1:11">
+      <c r="A51" s="5">
         <v>46</v>
       </c>
-      <c r="B48" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D48" s="10" t="s">
+      <c r="B51" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D51" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="E48" s="6" t="str">
+      <c r="E51" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Premium Black Mussels"</v>
       </c>
-      <c r="F48" s="6">
-        <v>200</v>
-      </c>
-      <c r="G48" s="5">
+      <c r="F51" s="13">
+        <v>200</v>
+      </c>
+      <c r="G51" s="5">
         <v>245</v>
       </c>
-      <c r="H48" s="6" t="str">
+      <c r="H51" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"245"</v>
       </c>
-      <c r="I48" s="7" t="str">
+      <c r="I51" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Premium Black Mussels"/1.jpg</v>
       </c>
-      <c r="J48" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K48" s="2" t="str">
+      <c r="J51" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K51" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{name:"Premium Black Mussels", category: "seafood", price: 200, id: "245", img: "./media/seafood/Premium Black Mussels/1.jpg"},</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="5">
+    <row r="52" spans="1:11">
+      <c r="A52" s="5">
         <v>47</v>
       </c>
-      <c r="B49" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C49" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="E49" s="6" t="str">
+      <c r="B52" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52" s="6" t="str">
         <f t="shared" si="6"/>
-        <v>"Red Snaper Fillet (Miso)"</v>
-      </c>
-      <c r="F49" s="6">
-        <v>200</v>
-      </c>
-      <c r="G49" s="5">
+        <v>"Red Snapper Fillet (Miso)"</v>
+      </c>
+      <c r="F52" s="13">
+        <v>200</v>
+      </c>
+      <c r="G52" s="5">
         <v>246</v>
       </c>
-      <c r="H49" s="6" t="str">
+      <c r="H52" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"246"</v>
       </c>
-      <c r="I49" s="7" t="str">
+      <c r="I52" s="7" t="str">
         <f t="shared" si="8"/>
-        <v>./media/"Red Snaper Fillet (Miso)"/1.jpg</v>
-      </c>
-      <c r="J49" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K49" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>{name:"Red Snaper Fillet (Miso)", category: "seafood", price: 200, id: "246", img: "./media/seafood/Red Snaper Fillet (Miso)/1.jpg"},</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="5">
+        <v>./media/"Red Snapper Fillet (Miso)"/1.jpg</v>
+      </c>
+      <c r="J52" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K52" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>{name:"Red Snapper Fillet (Miso)", category: "seafood", price: 200, id: "246", img: "./media/seafood/Red Snapper Fillet (Miso)/1.jpg"},</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="5">
         <v>48</v>
       </c>
-      <c r="B50" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E50" s="6" t="str">
+      <c r="B53" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E53" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Saba Fillet"</v>
       </c>
-      <c r="F50" s="6">
-        <v>200</v>
-      </c>
-      <c r="G50" s="5">
+      <c r="F53" s="13">
+        <v>200</v>
+      </c>
+      <c r="G53" s="5">
         <v>247</v>
       </c>
-      <c r="H50" s="6" t="str">
+      <c r="H53" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"247"</v>
       </c>
-      <c r="I50" s="7" t="str">
+      <c r="I53" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Saba Fillet"/1.jpg</v>
       </c>
-      <c r="J50" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K50" s="2" t="str">
+      <c r="J53" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K53" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{name:"Saba Fillet", category: "seafood", price: 200, id: "247", img: "./media/seafood/Saba Fillet/1.jpg"},</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="5">
+    <row r="54" spans="1:11">
+      <c r="A54" s="5">
         <v>49</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E51" s="6" t="str">
+      <c r="B54" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Saba Fillet (Fried)"</v>
       </c>
-      <c r="F51" s="6">
-        <v>200</v>
-      </c>
-      <c r="G51" s="5">
+      <c r="F54" s="13">
+        <v>200</v>
+      </c>
+      <c r="G54" s="5">
         <v>248</v>
       </c>
-      <c r="H51" s="6" t="str">
+      <c r="H54" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"248"</v>
       </c>
-      <c r="I51" s="7" t="str">
+      <c r="I54" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Saba Fillet (Fried)"/1.jpg</v>
       </c>
-      <c r="J51" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K51" s="2" t="str">
+      <c r="J54" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K54" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{name:"Saba Fillet (Fried)", category: "seafood", price: 200, id: "248", img: "./media/seafood/Saba Fillet (Fried)/1.jpg"},</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="5">
+    <row r="55" spans="1:11">
+      <c r="A55" s="5">
         <v>50</v>
       </c>
-      <c r="B52" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E52" s="6" t="str">
+      <c r="B55" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E55" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Saba Fillet (Miso)"</v>
       </c>
-      <c r="F52" s="6">
-        <v>200</v>
-      </c>
-      <c r="G52" s="5">
+      <c r="F55" s="13">
+        <v>200</v>
+      </c>
+      <c r="G55" s="5">
         <v>249</v>
       </c>
-      <c r="H52" s="6" t="str">
+      <c r="H55" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"249"</v>
       </c>
-      <c r="I52" s="7" t="str">
+      <c r="I55" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Saba Fillet (Miso)"/1.jpg</v>
       </c>
-      <c r="J52" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K52" s="2" t="str">
+      <c r="J55" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K55" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{name:"Saba Fillet (Miso)", category: "seafood", price: 200, id: "249", img: "./media/seafood/Saba Fillet (Miso)/1.jpg"},</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="5">
+    <row r="56" spans="1:11">
+      <c r="A56" s="5">
         <v>51</v>
       </c>
-      <c r="B53" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C53" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E53" s="6" t="str">
+      <c r="B56" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E56" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Saba Fillet (Salt Baked)"</v>
       </c>
-      <c r="F53" s="6">
-        <v>200</v>
-      </c>
-      <c r="G53" s="5">
+      <c r="F56" s="13">
+        <v>200</v>
+      </c>
+      <c r="G56" s="5">
         <v>250</v>
       </c>
-      <c r="H53" s="6" t="str">
+      <c r="H56" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"250"</v>
       </c>
-      <c r="I53" s="7" t="str">
+      <c r="I56" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Saba Fillet (Salt Baked)"/1.jpg</v>
       </c>
-      <c r="J53" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K53" s="2" t="str">
+      <c r="J56" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K56" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{name:"Saba Fillet (Salt Baked)", category: "seafood", price: 200, id: "250", img: "./media/seafood/Saba Fillet (Salt Baked)/1.jpg"},</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="5">
+    <row r="57" spans="1:11">
+      <c r="A57" s="5">
         <v>52</v>
       </c>
-      <c r="B54" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C54" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E54" s="6" t="str">
+      <c r="B57" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Salmon Fillet"</v>
       </c>
-      <c r="F54" s="6">
-        <v>200</v>
-      </c>
-      <c r="G54" s="5">
+      <c r="F57" s="13">
+        <v>200</v>
+      </c>
+      <c r="G57" s="5">
         <v>251</v>
       </c>
-      <c r="H54" s="6" t="str">
+      <c r="H57" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"251"</v>
       </c>
-      <c r="I54" s="7" t="str">
+      <c r="I57" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Salmon Fillet"/1.jpg</v>
       </c>
-      <c r="J54" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K54" s="2" t="str">
+      <c r="J57" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K57" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{name:"Salmon Fillet", category: "seafood", price: 200, id: "251", img: "./media/seafood/Salmon Fillet/1.jpg"},</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="5">
+    <row r="58" spans="1:11">
+      <c r="A58" s="5">
         <v>53</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C55" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E55" s="6" t="str">
+      <c r="B58" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Salmon Fillet (uncut)"</v>
       </c>
-      <c r="F55" s="6">
-        <v>200</v>
-      </c>
-      <c r="G55" s="5">
+      <c r="F58" s="13">
+        <v>200</v>
+      </c>
+      <c r="G58" s="5">
         <v>252</v>
       </c>
-      <c r="H55" s="6" t="str">
+      <c r="H58" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"252"</v>
       </c>
-      <c r="I55" s="7" t="str">
+      <c r="I58" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Salmon Fillet (uncut)"/1.jpg</v>
       </c>
-      <c r="J55" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K55" s="2" t="str">
+      <c r="J58" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K58" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{name:"Salmon Fillet (uncut)", category: "seafood", price: 200, id: "252", img: "./media/seafood/Salmon Fillet (uncut)/1.jpg"},</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="5">
+    <row r="59" spans="1:11">
+      <c r="A59" s="5">
         <v>54</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C56" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E56" s="6" t="str">
+      <c r="B59" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E59" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Salmon Head"</v>
       </c>
-      <c r="F56" s="6">
-        <v>200</v>
-      </c>
-      <c r="G56" s="5">
+      <c r="F59" s="13">
+        <v>200</v>
+      </c>
+      <c r="G59" s="5">
         <v>253</v>
       </c>
-      <c r="H56" s="6" t="str">
+      <c r="H59" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"253"</v>
       </c>
-      <c r="I56" s="7" t="str">
+      <c r="I59" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Salmon Head"/1.jpg</v>
       </c>
-      <c r="J56" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K56" s="2" t="str">
+      <c r="J59" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K59" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{name:"Salmon Head", category: "seafood", price: 200, id: "253", img: "./media/seafood/Salmon Head/1.jpg"},</v>
       </c>
     </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="5">
+    <row r="60" spans="1:11">
+      <c r="A60" s="5">
         <v>55</v>
       </c>
-      <c r="B57" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C57" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E57" s="6" t="str">
+      <c r="B60" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E60" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Salmon Steak"</v>
       </c>
-      <c r="F57" s="6">
-        <v>200</v>
-      </c>
-      <c r="G57" s="5">
+      <c r="F60" s="13">
+        <v>200</v>
+      </c>
+      <c r="G60" s="5">
         <v>254</v>
       </c>
-      <c r="H57" s="6" t="str">
+      <c r="H60" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"254"</v>
       </c>
-      <c r="I57" s="7" t="str">
+      <c r="I60" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Salmon Steak"/1.jpg</v>
       </c>
-      <c r="J57" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K57" s="2" t="str">
+      <c r="J60" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K60" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{name:"Salmon Steak", category: "seafood", price: 200, id: "254", img: "./media/seafood/Salmon Steak/1.jpg"},</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="5">
+    <row r="61" spans="1:11">
+      <c r="A61" s="5">
         <v>56</v>
       </c>
-      <c r="B58" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C58" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E58" s="6" t="str">
+      <c r="B61" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E61" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Scallop Sliders"</v>
       </c>
-      <c r="F58" s="6">
-        <v>200</v>
-      </c>
-      <c r="G58" s="5">
+      <c r="F61" s="13">
+        <v>200</v>
+      </c>
+      <c r="G61" s="5">
         <v>255</v>
       </c>
-      <c r="H58" s="6" t="str">
+      <c r="H61" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"255"</v>
       </c>
-      <c r="I58" s="7" t="str">
+      <c r="I61" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Scallop Sliders"/1.jpg</v>
       </c>
-      <c r="J58" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K58" s="2" t="str">
+      <c r="J61" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K61" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{name:"Scallop Sliders", category: "seafood", price: 200, id: "255", img: "./media/seafood/Scallop Sliders/1.jpg"},</v>
       </c>
     </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="5">
+    <row r="62" spans="1:11">
+      <c r="A62" s="5">
         <v>57</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E59" s="6" t="str">
+      <c r="B62" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Scampi U7"</v>
       </c>
-      <c r="F59" s="6">
-        <v>200</v>
-      </c>
-      <c r="G59" s="5">
+      <c r="F62" s="13">
+        <v>200</v>
+      </c>
+      <c r="G62" s="5">
         <v>256</v>
       </c>
-      <c r="H59" s="6" t="str">
+      <c r="H62" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"256"</v>
       </c>
-      <c r="I59" s="7" t="str">
+      <c r="I62" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Scampi U7"/1.jpg</v>
       </c>
-      <c r="J59" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K59" s="2" t="str">
+      <c r="J62" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K62" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{name:"Scampi U7", category: "seafood", price: 200, id: "256", img: "./media/seafood/Scampi U7/1.jpg"},</v>
       </c>
     </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="5">
+    <row r="63" spans="1:11">
+      <c r="A63" s="5">
         <v>58</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D60" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E60" s="6" t="str">
+      <c r="B63" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E63" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Sea Cucumber"</v>
       </c>
-      <c r="F60" s="6">
-        <v>200</v>
-      </c>
-      <c r="G60" s="5">
+      <c r="F63" s="13">
+        <v>200</v>
+      </c>
+      <c r="G63" s="5">
         <v>257</v>
       </c>
-      <c r="H60" s="6" t="str">
+      <c r="H63" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"257"</v>
       </c>
-      <c r="I60" s="7" t="str">
+      <c r="I63" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Sea Cucumber"/1.jpg</v>
       </c>
-      <c r="J60" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K60" s="2" t="str">
+      <c r="J63" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K63" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{name:"Sea Cucumber", category: "seafood", price: 200, id: "257", img: "./media/seafood/Sea Cucumber/1.jpg"},</v>
       </c>
     </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="5">
+    <row r="64" spans="1:11">
+      <c r="A64" s="5">
         <v>59</v>
       </c>
-      <c r="B61" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C61" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D61" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E61" s="6" t="str">
+      <c r="B64" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C64" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Sea Urchin Platter (L)"</v>
       </c>
-      <c r="F61" s="6">
-        <v>200</v>
-      </c>
-      <c r="G61" s="5">
+      <c r="F64" s="13">
+        <v>200</v>
+      </c>
+      <c r="G64" s="5">
         <v>258</v>
       </c>
-      <c r="H61" s="6" t="str">
+      <c r="H64" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"258"</v>
       </c>
-      <c r="I61" s="7" t="str">
+      <c r="I64" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Sea Urchin Platter (L)"/1.jpg</v>
       </c>
-      <c r="J61" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K61" s="2" t="str">
+      <c r="J64" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K64" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{name:"Sea Urchin Platter (L)", category: "seafood", price: 200, id: "258", img: "./media/seafood/Sea Urchin Platter (L)/1.jpg"},</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="5">
+    <row r="65" spans="1:11">
+      <c r="A65" s="5">
         <v>60</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C62" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="6" t="str">
+      <c r="B65" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E65" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Seafood Tofu"</v>
       </c>
-      <c r="F62" s="6">
-        <v>200</v>
-      </c>
-      <c r="G62" s="5">
+      <c r="F65" s="13">
+        <v>200</v>
+      </c>
+      <c r="G65" s="5">
         <v>259</v>
       </c>
-      <c r="H62" s="6" t="str">
+      <c r="H65" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"259"</v>
       </c>
-      <c r="I62" s="7" t="str">
+      <c r="I65" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Seafood Tofu"/1.jpg</v>
       </c>
-      <c r="J62" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K62" s="2" t="str">
+      <c r="J65" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K65" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{name:"Seafood Tofu", category: "seafood", price: 200, id: "259", img: "./media/seafood/Seafood Tofu/1.jpg"},</v>
       </c>
     </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="5">
+    <row r="66" spans="1:11">
+      <c r="A66" s="5">
         <v>61</v>
       </c>
-      <c r="B63" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D63" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E63" s="6" t="str">
+      <c r="B66" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C66" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E66" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Seasoned Octopus Salad (Mala)"</v>
       </c>
-      <c r="F63" s="6">
-        <v>200</v>
-      </c>
-      <c r="G63" s="5">
+      <c r="F66" s="13">
+        <v>200</v>
+      </c>
+      <c r="G66" s="5">
         <v>260</v>
       </c>
-      <c r="H63" s="6" t="str">
+      <c r="H66" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"260"</v>
       </c>
-      <c r="I63" s="7" t="str">
+      <c r="I66" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Seasoned Octopus Salad (Mala)"/1.jpg</v>
       </c>
-      <c r="J63" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K63" s="2" t="str">
+      <c r="J66" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K66" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{name:"Seasoned Octopus Salad (Mala)", category: "seafood", price: 200, id: "260", img: "./media/seafood/Seasoned Octopus Salad (Mala)/1.jpg"},</v>
       </c>
     </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="5">
+    <row r="67" spans="1:11">
+      <c r="A67" s="5">
         <v>62</v>
       </c>
-      <c r="B64" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C64" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E64" s="6" t="str">
+      <c r="B67" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E67" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Seasoned Sea Snail Salad (Wasabi)"</v>
       </c>
-      <c r="F64" s="6">
-        <v>200</v>
-      </c>
-      <c r="G64" s="5">
+      <c r="F67" s="13">
+        <v>200</v>
+      </c>
+      <c r="G67" s="5">
         <v>261</v>
       </c>
-      <c r="H64" s="6" t="str">
+      <c r="H67" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"261"</v>
       </c>
-      <c r="I64" s="7" t="str">
+      <c r="I67" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Seasoned Sea Snail Salad (Wasabi)"/1.jpg</v>
       </c>
-      <c r="J64" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K64" s="2" t="str">
+      <c r="J67" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K67" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{name:"Seasoned Sea Snail Salad (Wasabi)", category: "seafood", price: 200, id: "261", img: "./media/seafood/Seasoned Sea Snail Salad (Wasabi)/1.jpg"},</v>
       </c>
     </row>
-    <row r="65" spans="1:11">
-      <c r="A65" s="5">
+    <row r="68" spans="1:11">
+      <c r="A68" s="5">
         <v>63</v>
       </c>
-      <c r="B65" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E65" s="6" t="str">
+      <c r="B68" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E68" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Shark Fin (Real) 500g"</v>
       </c>
-      <c r="F65" s="6">
-        <v>200</v>
-      </c>
-      <c r="G65" s="5">
+      <c r="F68" s="13">
+        <v>200</v>
+      </c>
+      <c r="G68" s="5">
         <v>262</v>
       </c>
-      <c r="H65" s="6" t="str">
+      <c r="H68" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"262"</v>
       </c>
-      <c r="I65" s="7" t="str">
+      <c r="I68" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Shark Fin (Real) 500g"/1.jpg</v>
       </c>
-      <c r="J65" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K65" s="2" t="str">
+      <c r="J68" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K68" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{name:"Shark Fin (Real) 500g", category: "seafood", price: 200, id: "262", img: "./media/seafood/Shark Fin (Real) 500g/1.jpg"},</v>
       </c>
     </row>
-    <row r="66" spans="1:11">
-      <c r="A66" s="5">
+    <row r="69" spans="1:11">
+      <c r="A69" s="5">
         <v>64</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C66" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E66" s="6" t="str">
+      <c r="B69" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E69" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Shime Saba (Vinegered Mackerel)"</v>
       </c>
-      <c r="F66" s="6">
-        <v>200</v>
-      </c>
-      <c r="G66" s="5">
+      <c r="F69" s="13">
+        <v>200</v>
+      </c>
+      <c r="G69" s="5">
         <v>263</v>
       </c>
-      <c r="H66" s="6" t="str">
+      <c r="H69" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"263"</v>
       </c>
-      <c r="I66" s="7" t="str">
+      <c r="I69" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Shime Saba (Vinegered Mackerel)"/1.jpg</v>
       </c>
-      <c r="J66" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K66" s="2" t="str">
+      <c r="J69" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K69" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{name:"Shime Saba (Vinegered Mackerel)", category: "seafood", price: 200, id: "263", img: "./media/seafood/Shime Saba (Vinegered Mackerel)/1.jpg"},</v>
       </c>
     </row>
-    <row r="67" spans="1:11">
-      <c r="A67" s="5">
+    <row r="70" spans="1:11">
+      <c r="A70" s="5">
         <v>65</v>
       </c>
-      <c r="B67" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C67" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D67" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E67" s="6" t="str">
+      <c r="B70" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E70" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Shishamo"</v>
       </c>
-      <c r="F67" s="6">
-        <v>200</v>
-      </c>
-      <c r="G67" s="5">
+      <c r="F70" s="13">
+        <v>200</v>
+      </c>
+      <c r="G70" s="5">
         <v>264</v>
       </c>
-      <c r="H67" s="6" t="str">
+      <c r="H70" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"264"</v>
       </c>
-      <c r="I67" s="7" t="str">
+      <c r="I70" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Shishamo"/1.jpg</v>
       </c>
-      <c r="J67" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K67" s="2" t="str">
+      <c r="J70" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K70" s="2" t="str">
         <f t="shared" si="3"/>
         <v>{name:"Shishamo", category: "seafood", price: 200, id: "264", img: "./media/seafood/Shishamo/1.jpg"},</v>
       </c>
     </row>
-    <row r="68" spans="1:11">
-      <c r="A68" s="5">
+    <row r="71" spans="1:11">
+      <c r="A71" s="5">
         <v>66</v>
       </c>
-      <c r="B68" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D68" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E68" s="6" t="str">
+      <c r="B71" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E71" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Shrimp Paste"</v>
       </c>
-      <c r="F68" s="6">
-        <v>200</v>
-      </c>
-      <c r="G68" s="5">
+      <c r="F71" s="13">
+        <v>200</v>
+      </c>
+      <c r="G71" s="5">
         <v>265</v>
       </c>
-      <c r="H68" s="6" t="str">
+      <c r="H71" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"265"</v>
       </c>
-      <c r="I68" s="7" t="str">
+      <c r="I71" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Shrimp Paste"/1.jpg</v>
       </c>
-      <c r="J68" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K68" s="2" t="str">
-        <f t="shared" ref="K68:K83" si="9">"{name:"&amp;E68&amp;", category: "&amp;C68&amp;", price: "&amp;F68&amp;", id: "&amp;H68&amp;", img: ""./media/seafood/"&amp;D68&amp;"/1.jpg""},"</f>
+      <c r="J71" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K71" s="2" t="str">
+        <f t="shared" ref="K71:K87" si="14">"{name:"&amp;E71&amp;", category: "&amp;C71&amp;", price: "&amp;F71&amp;", id: "&amp;H71&amp;", img: ""./media/seafood/"&amp;D71&amp;"/1.jpg""},"</f>
         <v>{name:"Shrimp Paste", category: "seafood", price: 200, id: "265", img: "./media/seafood/Shrimp Paste/1.jpg"},</v>
       </c>
     </row>
-    <row r="69" spans="1:11">
-      <c r="A69" s="5">
+    <row r="72" spans="1:11">
+      <c r="A72" s="5">
         <v>67</v>
       </c>
-      <c r="B69" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D69" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E69" s="6" t="str">
+      <c r="B72" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="E72" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Siakap Fillet"</v>
       </c>
-      <c r="F69" s="6">
-        <v>200</v>
-      </c>
-      <c r="G69" s="5">
+      <c r="F72" s="13">
+        <v>200</v>
+      </c>
+      <c r="G72" s="5">
         <v>266</v>
       </c>
-      <c r="H69" s="6" t="str">
+      <c r="H72" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"266"</v>
       </c>
-      <c r="I69" s="7" t="str">
+      <c r="I72" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Siakap Fillet"/1.jpg</v>
       </c>
-      <c r="J69" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K69" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="J72" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K72" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>{name:"Siakap Fillet", category: "seafood", price: 200, id: "266", img: "./media/seafood/Siakap Fillet/1.jpg"},</v>
       </c>
     </row>
-    <row r="70" spans="1:11">
-      <c r="A70" s="5">
+    <row r="73" spans="1:11">
+      <c r="A73" s="5">
         <v>68</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D70" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E70" s="6" t="str">
+      <c r="B73" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E73" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Smoked Salmon"</v>
       </c>
-      <c r="F70" s="6">
-        <v>200</v>
-      </c>
-      <c r="G70" s="5">
+      <c r="F73" s="13">
+        <v>200</v>
+      </c>
+      <c r="G73" s="5">
         <v>267</v>
       </c>
-      <c r="H70" s="6" t="str">
+      <c r="H73" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"267"</v>
       </c>
-      <c r="I70" s="7" t="str">
+      <c r="I73" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Smoked Salmon"/1.jpg</v>
       </c>
-      <c r="J70" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K70" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="J73" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K73" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>{name:"Smoked Salmon", category: "seafood", price: 200, id: "267", img: "./media/seafood/Smoked Salmon/1.jpg"},</v>
       </c>
     </row>
-    <row r="71" spans="1:11">
-      <c r="A71" s="5">
+    <row r="74" spans="1:11">
+      <c r="A74" s="5">
         <v>69</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="5" t="str">
-        <f t="shared" ref="C71:C83" si="10">""&amp;J71&amp;""&amp;B71&amp;""&amp;J71&amp;""</f>
-        <v>"seafood"</v>
-      </c>
-      <c r="D71" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E71" s="6" t="str">
+      <c r="B74" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="5" t="str">
+        <f t="shared" ref="C74:C87" si="15">""&amp;J74&amp;""&amp;B74&amp;""&amp;J74&amp;""</f>
+        <v>"seafood"</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="E74" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Soft Shell Crab"</v>
       </c>
-      <c r="F71" s="6">
-        <v>200</v>
-      </c>
-      <c r="G71" s="5">
+      <c r="F74" s="13">
+        <v>200</v>
+      </c>
+      <c r="G74" s="5">
         <v>268</v>
       </c>
-      <c r="H71" s="6" t="str">
+      <c r="H74" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"268"</v>
       </c>
-      <c r="I71" s="7" t="str">
+      <c r="I74" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Soft Shell Crab"/1.jpg</v>
       </c>
-      <c r="J71" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K71" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="J74" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K74" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>{name:"Soft Shell Crab", category: "seafood", price: 200, id: "268", img: "./media/seafood/Soft Shell Crab/1.jpg"},</v>
       </c>
     </row>
-    <row r="72" spans="1:11">
-      <c r="A72" s="5">
+    <row r="75" spans="1:11">
+      <c r="A75" s="5">
         <v>70</v>
       </c>
-      <c r="B72" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D72" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E72" s="6" t="str">
+      <c r="B75" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E75" s="6" t="str">
         <f t="shared" si="6"/>
         <v>"Sotong (Cleaned) 2kg"</v>
       </c>
-      <c r="F72" s="6">
-        <v>200</v>
-      </c>
-      <c r="G72" s="5">
+      <c r="F75" s="13">
+        <v>200</v>
+      </c>
+      <c r="G75" s="5">
         <v>269</v>
       </c>
-      <c r="H72" s="6" t="str">
+      <c r="H75" s="6" t="str">
         <f t="shared" si="7"/>
         <v>"269"</v>
       </c>
-      <c r="I72" s="7" t="str">
+      <c r="I75" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Sotong (Cleaned) 2kg"/1.jpg</v>
       </c>
-      <c r="J72" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K72" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="J75" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K75" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>{name:"Sotong (Cleaned) 2kg", category: "seafood", price: 200, id: "269", img: "./media/seafood/Sotong (Cleaned) 2kg/1.jpg"},</v>
       </c>
     </row>
-    <row r="73" spans="1:11">
-      <c r="A73" s="5">
+    <row r="76" spans="1:11">
+      <c r="A76" s="5">
         <v>71</v>
       </c>
-      <c r="B73" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="E73" s="6" t="str">
-        <f t="shared" ref="E73:E83" si="11">""&amp;J73&amp;""&amp;D73&amp;""&amp;J73&amp;""</f>
+      <c r="B76" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E76" s="6" t="str">
+        <f t="shared" ref="E76:E87" si="16">""&amp;J76&amp;""&amp;D76&amp;""&amp;J76&amp;""</f>
         <v>"Spicy Clam with Shell"</v>
       </c>
-      <c r="F73" s="6">
-        <v>200</v>
-      </c>
-      <c r="G73" s="5">
+      <c r="F76" s="13">
+        <v>200</v>
+      </c>
+      <c r="G76" s="5">
         <v>270</v>
       </c>
-      <c r="H73" s="6" t="str">
-        <f t="shared" ref="H73:H83" si="12">""&amp;J73&amp;""&amp;G73&amp;""&amp;J73&amp;""</f>
+      <c r="H76" s="6" t="str">
+        <f t="shared" ref="H76:H87" si="17">""&amp;J76&amp;""&amp;G76&amp;""&amp;J76&amp;""</f>
         <v>"270"</v>
       </c>
-      <c r="I73" s="7" t="str">
+      <c r="I76" s="7" t="str">
         <f t="shared" si="8"/>
         <v>./media/"Spicy Clam with Shell"/1.jpg</v>
       </c>
-      <c r="J73" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K73" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="J76" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K76" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>{name:"Spicy Clam with Shell", category: "seafood", price: 200, id: "270", img: "./media/seafood/Spicy Clam with Shell/1.jpg"},</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
-      <c r="A74" s="5">
-        <v>72</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C74" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E74" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>"Spicy Crayfish Whole 700g"</v>
-      </c>
-      <c r="F74" s="6">
-        <v>200</v>
-      </c>
-      <c r="G74" s="5">
-        <v>271</v>
-      </c>
-      <c r="H74" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>"271"</v>
-      </c>
-      <c r="I74" s="7" t="str">
-        <f t="shared" ref="I74:I83" si="13">"./media/"&amp;E74&amp;"/1.jpg"</f>
-        <v>./media/"Spicy Crayfish Whole 700g"/1.jpg</v>
-      </c>
-      <c r="J74" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K74" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>{name:"Spicy Crayfish Whole 700g", category: "seafood", price: 200, id: "271", img: "./media/seafood/Spicy Crayfish Whole 700g/1.jpg"},</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
-      <c r="A75" s="5">
-        <v>73</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C75" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D75" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E75" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>"Tilapia (Premium Quality)"</v>
-      </c>
-      <c r="F75" s="6">
-        <v>200</v>
-      </c>
-      <c r="G75" s="5">
-        <v>272</v>
-      </c>
-      <c r="H75" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>"272"</v>
-      </c>
-      <c r="I75" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>./media/"Tilapia (Premium Quality)"/1.jpg</v>
-      </c>
-      <c r="J75" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K75" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>{name:"Tilapia (Premium Quality)", category: "seafood", price: 200, id: "272", img: "./media/seafood/Tilapia (Premium Quality)/1.jpg"},</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
-      <c r="A76" s="5">
-        <v>74</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C76" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E76" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>"Tobiko Orange"</v>
-      </c>
-      <c r="F76" s="6">
-        <v>200</v>
-      </c>
-      <c r="G76" s="5">
-        <v>273</v>
-      </c>
-      <c r="H76" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>"273"</v>
-      </c>
-      <c r="I76" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>./media/"Tobiko Orange"/1.jpg</v>
-      </c>
-      <c r="J76" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K76" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>{name:"Tobiko Orange", category: "seafood", price: 200, id: "273", img: "./media/seafood/Tobiko Orange/1.jpg"},</v>
       </c>
     </row>
     <row r="77" spans="1:11">
       <c r="A77" s="5">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C77" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>91</v>
+        <f t="shared" si="15"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>87</v>
       </c>
       <c r="E77" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>"Tobiko Shrimp Paste"</v>
-      </c>
-      <c r="F77" s="6">
+        <f t="shared" si="16"/>
+        <v>"Spicy Crayfish Whole 700g"</v>
+      </c>
+      <c r="F77" s="13">
         <v>200</v>
       </c>
       <c r="G77" s="5">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H77" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>"274"</v>
+        <f t="shared" si="17"/>
+        <v>"271"</v>
       </c>
       <c r="I77" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>./media/"Tobiko Shrimp Paste"/1.jpg</v>
+        <f t="shared" ref="I77:I87" si="18">"./media/"&amp;E77&amp;"/1.jpg"</f>
+        <v>./media/"Spicy Crayfish Whole 700g"/1.jpg</v>
       </c>
       <c r="J77" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K77" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>{name:"Tobiko Shrimp Paste", category: "seafood", price: 200, id: "274", img: "./media/seafood/Tobiko Shrimp Paste/1.jpg"},</v>
+        <f t="shared" si="14"/>
+        <v>{name:"Spicy Crayfish Whole 700g", category: "seafood", price: 200, id: "271", img: "./media/seafood/Spicy Crayfish Whole 700g/1.jpg"},</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="5">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C78" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>92</v>
+        <f t="shared" si="15"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>88</v>
       </c>
       <c r="E78" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>"Tuna Fillet"</v>
-      </c>
-      <c r="F78" s="6">
+        <f t="shared" si="16"/>
+        <v>"Tilapia (Premium Quality)"</v>
+      </c>
+      <c r="F78" s="13">
         <v>200</v>
       </c>
       <c r="G78" s="5">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H78" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>"275"</v>
+        <f t="shared" si="17"/>
+        <v>"272"</v>
       </c>
       <c r="I78" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>./media/"Tuna Fillet"/1.jpg</v>
+        <f t="shared" si="18"/>
+        <v>./media/"Tilapia (Premium Quality)"/1.jpg</v>
       </c>
       <c r="J78" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K78" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>{name:"Tuna Fillet", category: "seafood", price: 200, id: "275", img: "./media/seafood/Tuna Fillet/1.jpg"},</v>
+        <f t="shared" si="14"/>
+        <v>{name:"Tilapia (Premium Quality)", category: "seafood", price: 200, id: "272", img: "./media/seafood/Tilapia (Premium Quality)/1.jpg"},</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="A79" s="5">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C79" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>93</v>
+        <f t="shared" si="15"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>117</v>
       </c>
       <c r="E79" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>"Tuna Kelp Roll"</v>
-      </c>
-      <c r="F79" s="6">
+        <f t="shared" si="16"/>
+        <v>"Tobiko Orange (50g)"</v>
+      </c>
+      <c r="F79" s="13">
         <v>200</v>
       </c>
       <c r="G79" s="5">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H79" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>"276"</v>
+        <f t="shared" si="17"/>
+        <v>"273"</v>
       </c>
       <c r="I79" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>./media/"Tuna Kelp Roll"/1.jpg</v>
+        <f t="shared" si="18"/>
+        <v>./media/"Tobiko Orange (50g)"/1.jpg</v>
       </c>
       <c r="J79" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K79" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>{name:"Tuna Kelp Roll", category: "seafood", price: 200, id: "276", img: "./media/seafood/Tuna Kelp Roll/1.jpg"},</v>
+        <f t="shared" si="14"/>
+        <v>{name:"Tobiko Orange (50g)", category: "seafood", price: 200, id: "273", img: "./media/seafood/Tobiko Orange (50g)/1.jpg"},</v>
       </c>
     </row>
     <row r="80" spans="1:11">
-      <c r="A80" s="5">
-        <v>78</v>
-      </c>
       <c r="B80" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C80" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>94</v>
+        <f t="shared" ref="C80" si="19">""&amp;J80&amp;""&amp;B80&amp;""&amp;J80&amp;""</f>
+        <v>"seafood"</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="E80" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>"Unagi 200g"</v>
-      </c>
-      <c r="F80" s="6">
+        <f t="shared" si="16"/>
+        <v>"Tobiko Orange (500g)"</v>
+      </c>
+      <c r="F80" s="13">
         <v>200</v>
       </c>
       <c r="G80" s="5">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="H80" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>"277"</v>
+        <f t="shared" si="17"/>
+        <v>"274"</v>
       </c>
       <c r="I80" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>./media/"Unagi 200g"/1.jpg</v>
+        <f t="shared" si="18"/>
+        <v>./media/"Tobiko Orange (500g)"/1.jpg</v>
       </c>
       <c r="J80" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K80" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>{name:"Unagi 200g", category: "seafood", price: 200, id: "277", img: "./media/seafood/Unagi 200g/1.jpg"},</v>
+        <f t="shared" ref="K80" si="20">"{name:"&amp;E80&amp;", category: "&amp;C80&amp;", price: "&amp;F80&amp;", id: "&amp;H80&amp;", img: ""./media/seafood/"&amp;D80&amp;"/1.jpg""},"</f>
+        <v>{name:"Tobiko Orange (500g)", category: "seafood", price: 200, id: "274", img: "./media/seafood/Tobiko Orange (500g)/1.jpg"},</v>
       </c>
     </row>
     <row r="81" spans="1:11">
       <c r="A81" s="5">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>95</v>
+        <f t="shared" si="15"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="E81" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>"Unagi 310g"</v>
-      </c>
-      <c r="F81" s="6">
+        <f t="shared" si="16"/>
+        <v>"Tobiko Shrimp Paste"</v>
+      </c>
+      <c r="F81" s="13">
         <v>200</v>
       </c>
       <c r="G81" s="5">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="H81" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>"278"</v>
+        <f t="shared" si="17"/>
+        <v>"274"</v>
       </c>
       <c r="I81" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>./media/"Unagi 310g"/1.jpg</v>
+        <f t="shared" si="18"/>
+        <v>./media/"Tobiko Shrimp Paste"/1.jpg</v>
       </c>
       <c r="J81" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K81" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>{name:"Unagi 310g", category: "seafood", price: 200, id: "278", img: "./media/seafood/Unagi 310g/1.jpg"},</v>
+        <f t="shared" si="14"/>
+        <v>{name:"Tobiko Shrimp Paste", category: "seafood", price: 200, id: "274", img: "./media/seafood/Tobiko Shrimp Paste/1.jpg"},</v>
       </c>
     </row>
     <row r="82" spans="1:11">
       <c r="A82" s="5">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C82" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>96</v>
+        <f t="shared" si="15"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="E82" s="6" t="str">
-        <f t="shared" si="11"/>
-        <v>"White Prawn (L)"</v>
-      </c>
-      <c r="F82" s="6">
+        <f t="shared" si="16"/>
+        <v>"Tuna Fillet"</v>
+      </c>
+      <c r="F82" s="13">
         <v>200</v>
       </c>
       <c r="G82" s="5">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="H82" s="6" t="str">
-        <f t="shared" si="12"/>
-        <v>"279"</v>
+        <f t="shared" si="17"/>
+        <v>"275"</v>
       </c>
       <c r="I82" s="7" t="str">
-        <f t="shared" si="13"/>
-        <v>./media/"White Prawn (L)"/1.jpg</v>
+        <f t="shared" si="18"/>
+        <v>./media/"Tuna Fillet"/1.jpg</v>
       </c>
       <c r="J82" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K82" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>{name:"White Prawn (L)", category: "seafood", price: 200, id: "279", img: "./media/seafood/White Prawn (L)/1.jpg"},</v>
+        <f t="shared" si="14"/>
+        <v>{name:"Tuna Fillet", category: "seafood", price: 200, id: "275", img: "./media/seafood/Tuna Fillet/1.jpg"},</v>
       </c>
     </row>
     <row r="83" spans="1:11">
       <c r="A83" s="5">
+        <v>77</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E83" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>"Tuna Kelp Roll"</v>
+      </c>
+      <c r="F83" s="13">
+        <v>200</v>
+      </c>
+      <c r="G83" s="5">
+        <v>276</v>
+      </c>
+      <c r="H83" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>"276"</v>
+      </c>
+      <c r="I83" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>./media/"Tuna Kelp Roll"/1.jpg</v>
+      </c>
+      <c r="J83" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K83" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>{name:"Tuna Kelp Roll", category: "seafood", price: 200, id: "276", img: "./media/seafood/Tuna Kelp Roll/1.jpg"},</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84" s="5">
+        <v>78</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E84" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>"Unagi 200g"</v>
+      </c>
+      <c r="F84" s="13">
+        <v>200</v>
+      </c>
+      <c r="G84" s="5">
+        <v>277</v>
+      </c>
+      <c r="H84" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>"277"</v>
+      </c>
+      <c r="I84" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>./media/"Unagi 200g"/1.jpg</v>
+      </c>
+      <c r="J84" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K84" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>{name:"Unagi 200g", category: "seafood", price: 200, id: "277", img: "./media/seafood/Unagi 200g/1.jpg"},</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85" s="5">
+        <v>79</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E85" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>"Unagi 310g"</v>
+      </c>
+      <c r="F85" s="13">
+        <v>200</v>
+      </c>
+      <c r="G85" s="5">
+        <v>278</v>
+      </c>
+      <c r="H85" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>"278"</v>
+      </c>
+      <c r="I85" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>./media/"Unagi 310g"/1.jpg</v>
+      </c>
+      <c r="J85" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K85" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>{name:"Unagi 310g", category: "seafood", price: 200, id: "278", img: "./media/seafood/Unagi 310g/1.jpg"},</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86" s="5">
+        <v>80</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E86" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>"White Prawn (L)"</v>
+      </c>
+      <c r="F86" s="13">
+        <v>200</v>
+      </c>
+      <c r="G86" s="5">
+        <v>279</v>
+      </c>
+      <c r="H86" s="6" t="str">
+        <f t="shared" si="17"/>
+        <v>"279"</v>
+      </c>
+      <c r="I86" s="7" t="str">
+        <f t="shared" si="18"/>
+        <v>./media/"White Prawn (L)"/1.jpg</v>
+      </c>
+      <c r="J86" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K86" s="2" t="str">
+        <f t="shared" si="14"/>
+        <v>{name:"White Prawn (L)", category: "seafood", price: 200, id: "279", img: "./media/seafood/White Prawn (L)/1.jpg"},</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87" s="5">
         <v>81</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C83" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>"seafood"</v>
-      </c>
-      <c r="D83" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E83" s="6" t="str">
-        <f t="shared" si="11"/>
+      <c r="B87" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C87" s="5" t="str">
+        <f t="shared" si="15"/>
+        <v>"seafood"</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="E87" s="6" t="str">
+        <f t="shared" si="16"/>
         <v>"White Prawn (M)"</v>
       </c>
-      <c r="F83" s="6">
-        <v>200</v>
-      </c>
-      <c r="G83" s="5">
+      <c r="F87" s="13">
+        <v>200</v>
+      </c>
+      <c r="G87" s="5">
         <v>280</v>
       </c>
-      <c r="H83" s="6" t="str">
-        <f t="shared" si="12"/>
+      <c r="H87" s="6" t="str">
+        <f t="shared" si="17"/>
         <v>"280"</v>
       </c>
-      <c r="I83" s="7" t="str">
-        <f t="shared" si="13"/>
+      <c r="I87" s="7" t="str">
+        <f t="shared" si="18"/>
         <v>./media/"White Prawn (M)"/1.jpg</v>
       </c>
-      <c r="J83" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K83" s="2" t="str">
-        <f t="shared" si="9"/>
+      <c r="J87" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K87" s="2" t="str">
+        <f t="shared" si="14"/>
         <v>{name:"White Prawn (M)", category: "seafood", price: 200, id: "280", img: "./media/seafood/White Prawn (M)/1.jpg"},</v>
       </c>
     </row>
@@ -5001,13 +5558,14 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K32" sqref="A1:K32"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="4" width="21.28515625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="16"/>
     <col min="9" max="9" width="28.42578125" customWidth="1"/>
     <col min="10" max="10" width="1.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="74.28515625" bestFit="1" customWidth="1"/>
@@ -5015,7 +5573,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -5033,19 +5591,19 @@
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="2"/>
@@ -5063,20 +5621,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="5" t="str">
         <f>""&amp;J3&amp;""&amp;B3&amp;""&amp;J3&amp;""</f>
         <v>"vegetables"</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>13</v>
+      <c r="D3" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="E3" s="6" t="str">
         <f>""&amp;J3&amp;""&amp;D3&amp;""&amp;J3&amp;""</f>
         <v>"Cheese Tofu"</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="13">
         <v>200</v>
       </c>
       <c r="G3" s="5">
@@ -5112,20 +5670,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5" t="str">
         <f t="shared" ref="C4:C7" si="0">""&amp;J4&amp;""&amp;B4&amp;""&amp;J4&amp;""</f>
         <v>"vegetables"</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>14</v>
+      <c r="D4" s="11" t="s">
+        <v>15</v>
       </c>
       <c r="E4" s="6" t="str">
         <f t="shared" ref="E4:E8" si="1">""&amp;J4&amp;""&amp;D4&amp;""&amp;J4&amp;""</f>
         <v>"Edamame"</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="13">
         <v>200</v>
       </c>
       <c r="G4" s="5">
@@ -5161,20 +5719,20 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>"vegetables"</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>15</v>
+      <c r="D5" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="E5" s="6" t="str">
         <f t="shared" si="1"/>
         <v>"Edamame (peeled)"</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="13">
         <v>200</v>
       </c>
       <c r="G5" s="5">
@@ -5210,20 +5768,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>"vegetables"</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>16</v>
+      <c r="D6" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="E6" s="6" t="str">
         <f t="shared" si="1"/>
         <v>"French Fries (Crinkle Cut)"</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="13">
         <v>200</v>
       </c>
       <c r="G6" s="5">
@@ -5259,20 +5817,20 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>"vegetables"</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>17</v>
+      <c r="D7" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="E7" s="6" t="str">
         <f t="shared" si="1"/>
         <v>"French Fries (Shoestring)"</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="13">
         <v>200</v>
       </c>
       <c r="G7" s="5">
@@ -5309,9 +5867,9 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
       <c r="I8" s="7"/>
@@ -5335,9 +5893,9 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="10"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -5361,9 +5919,9 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="10"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -5387,9 +5945,9 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="10"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -5413,9 +5971,9 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="10"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -5439,9 +5997,9 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="10"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -5465,9 +6023,9 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="10"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -5491,9 +6049,9 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="10"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -5517,9 +6075,9 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="10"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="6"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -5543,9 +6101,9 @@
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="10"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="6"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -5569,9 +6127,9 @@
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="10"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="6"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -5595,9 +6153,9 @@
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="10"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="6"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -5621,9 +6179,9 @@
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="10"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="F20" s="13"/>
       <c r="G20" s="6"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -5647,9 +6205,9 @@
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="10"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="F21" s="13"/>
       <c r="G21" s="6"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -5673,9 +6231,9 @@
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="10"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="F22" s="13"/>
       <c r="G22" s="6"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -5699,9 +6257,9 @@
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="10"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="F23" s="13"/>
       <c r="G23" s="6"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -5725,9 +6283,9 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="10"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="F24" s="13"/>
       <c r="G24" s="6"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -5751,9 +6309,9 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="10"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="6"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -5777,9 +6335,9 @@
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="10"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="F26" s="13"/>
       <c r="G26" s="6"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -5803,9 +6361,9 @@
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="10"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="F27" s="13"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -5829,9 +6387,9 @@
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="10"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="6"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -5855,9 +6413,9 @@
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="10"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="F29" s="13"/>
       <c r="G29" s="6"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -5881,9 +6439,9 @@
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="10"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="F30" s="13"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -5907,9 +6465,9 @@
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="10"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="F31" s="13"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -5933,9 +6491,9 @@
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="10"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="F32" s="13"/>
       <c r="G32" s="6"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>
@@ -5963,13 +6521,14 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="4" max="4" width="17.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="16"/>
     <col min="9" max="9" width="28.42578125" customWidth="1"/>
     <col min="10" max="10" width="1.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="74.28515625" bestFit="1" customWidth="1"/>
@@ -5977,7 +6536,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="F1" s="15"/>
       <c r="G1" s="1"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -5995,19 +6554,19 @@
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="10"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="13" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="7" t="s">
         <v>4</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="2"/>
@@ -6025,20 +6584,20 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="5" t="str">
         <f>""&amp;J3&amp;""&amp;B3&amp;""&amp;J3&amp;""</f>
         <v>"fruits"</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>7</v>
+      <c r="D3" s="11" t="s">
+        <v>8</v>
       </c>
       <c r="E3" s="6" t="str">
         <f>""&amp;J3&amp;""&amp;D3&amp;""&amp;J3&amp;""</f>
         <v>"Frozen Blueberries"</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="13">
         <v>200</v>
       </c>
       <c r="G3" s="5">
@@ -6074,20 +6633,20 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="5" t="str">
         <f t="shared" ref="C4:C7" si="0">""&amp;J4&amp;""&amp;B4&amp;""&amp;J4&amp;""</f>
         <v>"fruits"</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>8</v>
+      <c r="D4" s="11" t="s">
+        <v>9</v>
       </c>
       <c r="E4" s="6" t="str">
         <f t="shared" ref="E4:E7" si="1">""&amp;J4&amp;""&amp;D4&amp;""&amp;J4&amp;""</f>
         <v>"Frozen Mixed Berries"</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="13">
         <v>200</v>
       </c>
       <c r="G4" s="5">
@@ -6123,20 +6682,20 @@
         <v>3</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>"fruits"</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>9</v>
+      <c r="D5" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="E5" s="6" t="str">
         <f t="shared" si="1"/>
         <v>"Frozen Mixed Fruits"</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="13">
         <v>200</v>
       </c>
       <c r="G5" s="5">
@@ -6172,20 +6731,20 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>"fruits"</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>10</v>
+      <c r="D6" s="11" t="s">
+        <v>11</v>
       </c>
       <c r="E6" s="6" t="str">
         <f t="shared" si="1"/>
         <v>"Frozen Rasberries"</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="13">
         <v>200</v>
       </c>
       <c r="G6" s="5">
@@ -6221,20 +6780,20 @@
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>"fruits"</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>11</v>
+      <c r="D7" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="E7" s="6" t="str">
         <f t="shared" si="1"/>
         <v>"Frozen Strawberries"</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="13">
         <v>200</v>
       </c>
       <c r="G7" s="5">
@@ -6271,9 +6830,9 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="10"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
+      <c r="F8" s="13"/>
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
       <c r="I8" s="7" t="str">
@@ -6300,9 +6859,9 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="10"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="6"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7" t="str">
@@ -6329,9 +6888,9 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="10"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="F10" s="13"/>
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7" t="str">
@@ -6358,9 +6917,9 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="10"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="6"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7" t="str">
@@ -6387,9 +6946,9 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="10"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="F12" s="13"/>
       <c r="G12" s="6"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7" t="str">
@@ -6416,9 +6975,9 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="10"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="6"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7" t="str">
@@ -6445,9 +7004,9 @@
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="10"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="6"/>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -6471,9 +7030,9 @@
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="10"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="6"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -6497,9 +7056,9 @@
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="10"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="6"/>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -6523,9 +7082,9 @@
       </c>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="10"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="6"/>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -6549,9 +7108,9 @@
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="10"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="6"/>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -6575,9 +7134,9 @@
       </c>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="10"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="6"/>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
@@ -6601,9 +7160,9 @@
       </c>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="10"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
+      <c r="F20" s="13"/>
       <c r="G20" s="6"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7"/>
@@ -6627,9 +7186,9 @@
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="10"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
+      <c r="F21" s="13"/>
       <c r="G21" s="6"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -6653,9 +7212,9 @@
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="10"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="F22" s="13"/>
       <c r="G22" s="6"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
@@ -6679,9 +7238,9 @@
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="10"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+      <c r="F23" s="13"/>
       <c r="G23" s="6"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
@@ -6705,9 +7264,9 @@
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="10"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="F24" s="13"/>
       <c r="G24" s="6"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
@@ -6731,9 +7290,9 @@
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="10"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="F25" s="13"/>
       <c r="G25" s="6"/>
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
@@ -6757,9 +7316,9 @@
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="10"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="F26" s="13"/>
       <c r="G26" s="6"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
@@ -6783,9 +7342,9 @@
       </c>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="10"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="F27" s="13"/>
       <c r="G27" s="6"/>
       <c r="H27" s="7"/>
       <c r="I27" s="7"/>
@@ -6809,9 +7368,9 @@
       </c>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="10"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="F28" s="13"/>
       <c r="G28" s="6"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
@@ -6835,9 +7394,9 @@
       </c>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="10"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="F29" s="13"/>
       <c r="G29" s="6"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
@@ -6861,9 +7420,9 @@
       </c>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="10"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="F30" s="13"/>
       <c r="G30" s="6"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
@@ -6887,9 +7446,9 @@
       </c>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="10"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+      <c r="F31" s="13"/>
       <c r="G31" s="6"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
@@ -6913,9 +7472,9 @@
       </c>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="10"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+      <c r="F32" s="13"/>
       <c r="G32" s="6"/>
       <c r="H32" s="7"/>
       <c r="I32" s="7"/>

--- a/inventory/king-seafood-inventory.xlsx
+++ b/inventory/king-seafood-inventory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nc/Desktop/projects/king-seafood/inventory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A234DCDD-A287-F44A-A54C-61445BEC551D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC59DA1-86B2-2343-8C47-4EB6C892E438}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33640" yWindow="3780" windowWidth="41200" windowHeight="33380" xr2:uid="{FD52CB84-DEDF-7340-971F-DF3224C449BE}"/>
+    <workbookView xWindow="33640" yWindow="3780" windowWidth="41200" windowHeight="33380" activeTab="3" xr2:uid="{FD52CB84-DEDF-7340-971F-DF3224C449BE}"/>
   </bookViews>
   <sheets>
     <sheet name="MEAT" sheetId="1" r:id="rId1"/>
@@ -819,8 +819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C353D058-1B5C-8446-8ECF-CE709FF03524}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K3:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -909,8 +909,8 @@
         <v>2</v>
       </c>
       <c r="K3" s="9" t="str">
-        <f>"{name:"&amp;E3&amp;", category: "&amp;C3&amp;", price: "&amp;F3&amp;", id: "&amp;H3&amp;", img: ""./media/meat/"&amp;D3&amp;"/1.jpg""},"</f>
-        <v>{name:"Australian Beef Slice", category: "meat", price: 200, id: "100", img: "./media/meat/Australian Beef Slice/1.jpg"},</v>
+        <f>"{name:"&amp;E3&amp;", category: "&amp;C3&amp;", price: "&amp;F3&amp;", id: "&amp;H3&amp;", img: ""media/meat/"&amp;D3&amp;"/1.jpg""},"</f>
+        <v>{name:"Australian Beef Slice", category: "meat", price: 200, id: "100", img: "media/meat/Australian Beef Slice/1.jpg"},</v>
       </c>
       <c r="P3" s="3"/>
     </row>
@@ -950,8 +950,8 @@
         <v>2</v>
       </c>
       <c r="K4" s="9" t="str">
-        <f t="shared" ref="K4:K20" si="3">"{name:"&amp;E4&amp;", category: "&amp;C4&amp;", price: "&amp;F4&amp;", id: "&amp;H4&amp;", img: ""./media/meat/"&amp;D4&amp;"/1.jpg""},"</f>
-        <v>{name:"Breaded Chicken Chop", category: "meat", price: 200, id: "101", img: "./media/meat/Breaded Chicken Chop/1.jpg"},</v>
+        <f t="shared" ref="K4:K20" si="3">"{name:"&amp;E4&amp;", category: "&amp;C4&amp;", price: "&amp;F4&amp;", id: "&amp;H4&amp;", img: ""media/meat/"&amp;D4&amp;"/1.jpg""},"</f>
+        <v>{name:"Breaded Chicken Chop", category: "meat", price: 200, id: "101", img: "media/meat/Breaded Chicken Chop/1.jpg"},</v>
       </c>
       <c r="P4" s="3"/>
     </row>
@@ -992,7 +992,7 @@
       </c>
       <c r="K5" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Chicken Burger Patty", category: "meat", price: 200, id: "102", img: "./media/meat/Chicken Burger Patty/1.jpg"},</v>
+        <v>{name:"Chicken Burger Patty", category: "meat", price: 200, id: "102", img: "media/meat/Chicken Burger Patty/1.jpg"},</v>
       </c>
       <c r="P5" s="3"/>
     </row>
@@ -1033,7 +1033,7 @@
       </c>
       <c r="K6" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Chicken Nuggets Tempura", category: "meat", price: 200, id: "103", img: "./media/meat/Chicken Nuggets Tempura/1.jpg"},</v>
+        <v>{name:"Chicken Nuggets Tempura", category: "meat", price: 200, id: "103", img: "media/meat/Chicken Nuggets Tempura/1.jpg"},</v>
       </c>
       <c r="P6" s="3"/>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="K7" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Crispy Popcorn Chicken", category: "meat", price: 200, id: "104", img: "./media/meat/Crispy Popcorn Chicken/1.jpg"},</v>
+        <v>{name:"Crispy Popcorn Chicken", category: "meat", price: 200, id: "104", img: "media/meat/Crispy Popcorn Chicken/1.jpg"},</v>
       </c>
       <c r="P7" s="3"/>
     </row>
@@ -1115,7 +1115,7 @@
       </c>
       <c r="K8" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Meatballs", category: "meat", price: 200, id: "105", img: "./media/meat/Meatballs/1.jpg"},</v>
+        <v>{name:"Meatballs", category: "meat", price: 200, id: "105", img: "media/meat/Meatballs/1.jpg"},</v>
       </c>
       <c r="P8" s="3"/>
     </row>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="K9" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Miami Butcher Chicken Ham (Sliced)", category: "meat", price: 200, id: "106", img: "./media/meat/Miami Butcher Chicken Ham (Sliced)/1.jpg"},</v>
+        <v>{name:"Miami Butcher Chicken Ham (Sliced)", category: "meat", price: 200, id: "106", img: "media/meat/Miami Butcher Chicken Ham (Sliced)/1.jpg"},</v>
       </c>
       <c r="P9" s="3"/>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="K10" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Miami Butcher Chicken Sausage Breakfast", category: "meat", price: 200, id: "107", img: "./media/meat/Miami Butcher Chicken Sausage Breakfast/1.jpg"},</v>
+        <v>{name:"Miami Butcher Chicken Sausage Breakfast", category: "meat", price: 200, id: "107", img: "media/meat/Miami Butcher Chicken Sausage Breakfast/1.jpg"},</v>
       </c>
       <c r="P10" s="3"/>
     </row>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="K11" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Miami Butcher Chicken Sausage Jumbo", category: "meat", price: 200, id: "108", img: "./media/meat/Miami Butcher Chicken Sausage Jumbo/1.jpg"},</v>
+        <v>{name:"Miami Butcher Chicken Sausage Jumbo", category: "meat", price: 200, id: "108", img: "media/meat/Miami Butcher Chicken Sausage Jumbo/1.jpg"},</v>
       </c>
       <c r="P11" s="3"/>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="K12" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Miami Butcher Turkey Bacon (Sliced)", category: "meat", price: 200, id: "109", img: "./media/meat/Miami Butcher Turkey Bacon (Sliced)/1.jpg"},</v>
+        <v>{name:"Miami Butcher Turkey Bacon (Sliced)", category: "meat", price: 200, id: "109", img: "media/meat/Miami Butcher Turkey Bacon (Sliced)/1.jpg"},</v>
       </c>
       <c r="P12" s="3"/>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K13" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Mince Meat 300g", category: "meat", price: 200, id: "110", img: "./media/meat/Mince Meat 300g/1.jpg"},</v>
+        <v>{name:"Mince Meat 300g", category: "meat", price: 200, id: "110", img: "media/meat/Mince Meat 300g/1.jpg"},</v>
       </c>
       <c r="P13" s="3"/>
     </row>
@@ -1361,7 +1361,7 @@
       </c>
       <c r="K14" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Mince Meat 600g", category: "meat", price: 200, id: "111", img: "./media/meat/Mince Meat 600g/1.jpg"},</v>
+        <v>{name:"Mince Meat 600g", category: "meat", price: 200, id: "111", img: "media/meat/Mince Meat 600g/1.jpg"},</v>
       </c>
       <c r="P14" s="3"/>
     </row>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="K15" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Pork Stomach", category: "meat", price: 200, id: "112", img: "./media/meat/Pork Stomach/1.jpg"},</v>
+        <v>{name:"Pork Stomach", category: "meat", price: 200, id: "112", img: "media/meat/Pork Stomach/1.jpg"},</v>
       </c>
       <c r="P15" s="3"/>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="K16" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Pork Tendon", category: "meat", price: 200, id: "113", img: "./media/meat/Pork Tendon/1.jpg"},</v>
+        <v>{name:"Pork Tendon", category: "meat", price: 200, id: "113", img: "media/meat/Pork Tendon/1.jpg"},</v>
       </c>
       <c r="P16" s="3"/>
     </row>
@@ -1484,7 +1484,7 @@
       </c>
       <c r="K17" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Shabu Shabu Pork", category: "meat", price: 200, id: "114", img: "./media/meat/Shabu Shabu Pork/1.jpg"},</v>
+        <v>{name:"Shabu Shabu Pork", category: "meat", price: 200, id: "114", img: "media/meat/Shabu Shabu Pork/1.jpg"},</v>
       </c>
       <c r="P17" s="3"/>
     </row>
@@ -1525,7 +1525,7 @@
       </c>
       <c r="K18" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Shabu Shabu Pork Belly", category: "meat", price: 200, id: "115", img: "./media/meat/Shabu Shabu Pork Belly/1.jpg"},</v>
+        <v>{name:"Shabu Shabu Pork Belly", category: "meat", price: 200, id: "115", img: "media/meat/Shabu Shabu Pork Belly/1.jpg"},</v>
       </c>
       <c r="P18" s="3"/>
     </row>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="K19" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Smoked Back Bacon", category: "meat", price: 200, id: "116", img: "./media/meat/Smoked Back Bacon/1.jpg"},</v>
+        <v>{name:"Smoked Back Bacon", category: "meat", price: 200, id: "116", img: "media/meat/Smoked Back Bacon/1.jpg"},</v>
       </c>
       <c r="P19" s="3"/>
     </row>
@@ -1607,7 +1607,7 @@
       </c>
       <c r="K20" s="9" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Smoked Duck", category: "meat", price: 200, id: "117", img: "./media/meat/Smoked Duck/1.jpg"},</v>
+        <v>{name:"Smoked Duck", category: "meat", price: 200, id: "117", img: "media/meat/Smoked Duck/1.jpg"},</v>
       </c>
       <c r="P20" s="3"/>
     </row>
@@ -1825,7 +1825,7 @@
   <dimension ref="A1:T87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="K87" sqref="K3:K87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1917,8 +1917,8 @@
         <v>2</v>
       </c>
       <c r="K3" s="2" t="str">
-        <f>"{name:"&amp;E3&amp;", category: "&amp;C3&amp;", price: "&amp;F3&amp;", id: "&amp;H3&amp;", img: ""./media/seafood/"&amp;D3&amp;"/1.jpg""},"</f>
-        <v>{name:"Abalone Can", category: "seafood", price: 200, id: "200", img: "./media/seafood/Abalone Can/1.jpg"},</v>
+        <f>"{name:"&amp;E3&amp;", category: "&amp;C3&amp;", price: "&amp;F3&amp;", id: "&amp;H3&amp;", img: ""media/seafood/"&amp;D3&amp;"/1.jpg""},"</f>
+        <v>{name:"Abalone Can", category: "seafood", price: 200, id: "200", img: "media/seafood/Abalone Can/1.jpg"},</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="2"/>
@@ -1966,8 +1966,8 @@
         <v>2</v>
       </c>
       <c r="K4" s="2" t="str">
-        <f t="shared" ref="K4:K70" si="3">"{name:"&amp;E4&amp;", category: "&amp;C4&amp;", price: "&amp;F4&amp;", id: "&amp;H4&amp;", img: ""./media/seafood/"&amp;D4&amp;"/1.jpg""},"</f>
-        <v>{name:"Abalone Slice", category: "seafood", price: 200, id: "201", img: "./media/seafood/Abalone Slice/1.jpg"},</v>
+        <f t="shared" ref="K4:K67" si="3">"{name:"&amp;E4&amp;", category: "&amp;C4&amp;", price: "&amp;F4&amp;", id: "&amp;H4&amp;", img: ""media/seafood/"&amp;D4&amp;"/1.jpg""},"</f>
+        <v>{name:"Abalone Slice", category: "seafood", price: 200, id: "201", img: "media/seafood/Abalone Slice/1.jpg"},</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="2"/>
@@ -2016,7 +2016,7 @@
       </c>
       <c r="K5" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Alaskan King Crab", category: "seafood", price: 200, id: "202", img: "./media/seafood/Alaskan King Crab/1.jpg"},</v>
+        <v>{name:"Alaskan King Crab", category: "seafood", price: 200, id: "202", img: "media/seafood/Alaskan King Crab/1.jpg"},</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="2"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="K6" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Baby Octopus", category: "seafood", price: 200, id: "203", img: "./media/seafood/Baby Octopus/1.jpg"},</v>
+        <v>{name:"Baby Octopus", category: "seafood", price: 200, id: "203", img: "media/seafood/Baby Octopus/1.jpg"},</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="2"/>
@@ -2114,7 +2114,7 @@
       </c>
       <c r="K7" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Breaded Cod Fish", category: "seafood", price: 200, id: "204", img: "./media/seafood/Breaded Cod Fish/1.jpg"},</v>
+        <v>{name:"Breaded Cod Fish", category: "seafood", price: 200, id: "204", img: "media/seafood/Breaded Cod Fish/1.jpg"},</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="2"/>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="K8" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Breaded Scallops", category: "seafood", price: 200, id: "205", img: "./media/seafood/Breaded Scallops/1.jpg"},</v>
+        <v>{name:"Breaded Scallops", category: "seafood", price: 200, id: "205", img: "media/seafood/Breaded Scallops/1.jpg"},</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="2"/>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="K9" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Canadian Scallops", category: "seafood", price: 200, id: "206", img: "./media/seafood/Canadian Scallops/1.jpg"},</v>
+        <v>{name:"Canadian Scallops", category: "seafood", price: 200, id: "206", img: "media/seafood/Canadian Scallops/1.jpg"},</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="2"/>
@@ -2261,7 +2261,7 @@
       </c>
       <c r="K10" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Caviar", category: "seafood", price: 200, id: "207", img: "./media/seafood/Caviar/1.jpg"},</v>
+        <v>{name:"Caviar", category: "seafood", price: 200, id: "207", img: "media/seafood/Caviar/1.jpg"},</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="2"/>
@@ -2310,7 +2310,7 @@
       </c>
       <c r="K11" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Chuka Hotate", category: "seafood", price: 200, id: "208", img: "./media/seafood/Chuka Hotate/1.jpg"},</v>
+        <v>{name:"Chuka Hotate", category: "seafood", price: 200, id: "208", img: "media/seafood/Chuka Hotate/1.jpg"},</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="2"/>
@@ -2359,7 +2359,7 @@
       </c>
       <c r="K12" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Chuka Idako (Seasoned Baby Octopus) 2kg", category: "seafood", price: 200, id: "209", img: "./media/seafood/Chuka Idako (Seasoned Baby Octopus) 2kg/1.jpg"},</v>
+        <v>{name:"Chuka Idako (Seasoned Baby Octopus) 2kg", category: "seafood", price: 200, id: "209", img: "media/seafood/Chuka Idako (Seasoned Baby Octopus) 2kg/1.jpg"},</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="2"/>
@@ -2408,7 +2408,7 @@
       </c>
       <c r="K13" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Chuka Idako (Seasoned Baby Octopus) 500g", category: "seafood", price: 200, id: "210", img: "./media/seafood/Chuka Idako (Seasoned Baby Octopus) 500g/1.jpg"},</v>
+        <v>{name:"Chuka Idako (Seasoned Baby Octopus) 500g", category: "seafood", price: 200, id: "210", img: "media/seafood/Chuka Idako (Seasoned Baby Octopus) 500g/1.jpg"},</v>
       </c>
       <c r="L13" s="3"/>
       <c r="M13" s="2"/>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="K14" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Chuka Wakame", category: "seafood", price: 200, id: "211", img: "./media/seafood/Chuka Wakame/1.jpg"},</v>
+        <v>{name:"Chuka Wakame", category: "seafood", price: 200, id: "211", img: "media/seafood/Chuka Wakame/1.jpg"},</v>
       </c>
       <c r="L14" s="3"/>
       <c r="M14" s="2"/>
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K15" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Clam (lala)", category: "seafood", price: 200, id: "212", img: "./media/seafood/Clam (lala)/1.jpg"},</v>
+        <v>{name:"Clam (lala)", category: "seafood", price: 200, id: "212", img: "media/seafood/Clam (lala)/1.jpg"},</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="2"/>
@@ -2555,7 +2555,7 @@
       </c>
       <c r="K16" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Cod Fillet (Miso)", category: "seafood", price: 200, id: "213", img: "./media/seafood/Cod Fillet (Miso)/1.jpg"},</v>
+        <v>{name:"Cod Fillet (Miso)", category: "seafood", price: 200, id: "213", img: "media/seafood/Cod Fillet (Miso)/1.jpg"},</v>
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="2"/>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="K17" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Cod Fish", category: "seafood", price: 200, id: "214", img: "./media/seafood/Cod Fish/1.jpg"},</v>
+        <v>{name:"Cod Fish", category: "seafood", price: 200, id: "214", img: "media/seafood/Cod Fish/1.jpg"},</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="2"/>
@@ -2653,7 +2653,7 @@
       </c>
       <c r="K18" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Crab Meat (Mix)", category: "seafood", price: 200, id: "215", img: "./media/seafood/Crab Meat (Mix)/1.jpg"},</v>
+        <v>{name:"Crab Meat (Mix)", category: "seafood", price: 200, id: "215", img: "media/seafood/Crab Meat (Mix)/1.jpg"},</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="2"/>
@@ -2702,7 +2702,7 @@
       </c>
       <c r="K19" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Crab meat (Red) 400g", category: "seafood", price: 200, id: "216", img: "./media/seafood/Crab meat (Red) 400g/1.jpg"},</v>
+        <v>{name:"Crab meat (Red) 400g", category: "seafood", price: 200, id: "216", img: "media/seafood/Crab meat (Red) 400g/1.jpg"},</v>
       </c>
       <c r="L19" s="3"/>
       <c r="M19" s="2"/>
@@ -2751,7 +2751,7 @@
       </c>
       <c r="K20" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Crab Meat (Red) 800g", category: "seafood", price: 200, id: "217", img: "./media/seafood/Crab Meat (Red) 800g/1.jpg"},</v>
+        <v>{name:"Crab Meat (Red) 800g", category: "seafood", price: 200, id: "217", img: "media/seafood/Crab Meat (Red) 800g/1.jpg"},</v>
       </c>
       <c r="L20" s="3"/>
       <c r="M20" s="2"/>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="K21" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Crab Meat (White) 400g", category: "seafood", price: 200, id: "218", img: "./media/seafood/Crab Meat (White) 400g/1.jpg"},</v>
+        <v>{name:"Crab Meat (White) 400g", category: "seafood", price: 200, id: "218", img: "media/seafood/Crab Meat (White) 400g/1.jpg"},</v>
       </c>
       <c r="L21" s="3"/>
       <c r="M21" s="2"/>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="K22" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Crab Meat (White) 800g", category: "seafood", price: 200, id: "219", img: "./media/seafood/Crab Meat (White) 800g/1.jpg"},</v>
+        <v>{name:"Crab Meat (White) 800g", category: "seafood", price: 200, id: "219", img: "media/seafood/Crab Meat (White) 800g/1.jpg"},</v>
       </c>
       <c r="L22" s="3"/>
       <c r="M22" s="2"/>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="K23" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Ebi Tempura", category: "seafood", price: 200, id: "220", img: "./media/seafood/Ebi Tempura/1.jpg"},</v>
+        <v>{name:"Ebi Tempura", category: "seafood", price: 200, id: "220", img: "media/seafood/Ebi Tempura/1.jpg"},</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="2"/>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="K24" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Ebiko Orange", category: "seafood", price: 200, id: "221", img: "./media/seafood/Ebiko Orange/1.jpg"},</v>
+        <v>{name:"Ebiko Orange", category: "seafood", price: 200, id: "221", img: "media/seafood/Ebiko Orange/1.jpg"},</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="2"/>
@@ -2996,7 +2996,7 @@
       </c>
       <c r="K25" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Fish Maw", category: "seafood", price: 200, id: "222", img: "./media/seafood/Fish Maw/1.jpg"},</v>
+        <v>{name:"Fish Maw", category: "seafood", price: 200, id: "222", img: "media/seafood/Fish Maw/1.jpg"},</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="2"/>
@@ -3045,7 +3045,7 @@
       </c>
       <c r="K26" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Flower Squid", category: "seafood", price: 200, id: "223", img: "./media/seafood/Flower Squid/1.jpg"},</v>
+        <v>{name:"Flower Squid", category: "seafood", price: 200, id: "223", img: "media/seafood/Flower Squid/1.jpg"},</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="2"/>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="K27" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Fo Tiao Qiang", category: "seafood", price: 200, id: "224", img: "./media/seafood/Fo Tiao Qiang/1.jpg"},</v>
+        <v>{name:"Fo Tiao Qiang", category: "seafood", price: 200, id: "224", img: "media/seafood/Fo Tiao Qiang/1.jpg"},</v>
       </c>
       <c r="L27" s="3"/>
       <c r="M27" s="2"/>
@@ -3143,7 +3143,7 @@
       </c>
       <c r="K28" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Garlic Crayfish Whole 700g", category: "seafood", price: 200, id: "225", img: "./media/seafood/Garlic Crayfish Whole 700g/1.jpg"},</v>
+        <v>{name:"Garlic Crayfish Whole 700g", category: "seafood", price: 200, id: "225", img: "media/seafood/Garlic Crayfish Whole 700g/1.jpg"},</v>
       </c>
       <c r="L28" s="3"/>
       <c r="M28" s="2"/>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="K29" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Half Shell Scallop", category: "seafood", price: 200, id: "226", img: "./media/seafood/Half Shell Scallop/1.jpg"},</v>
+        <v>{name:"Half Shell Scallop", category: "seafood", price: 200, id: "226", img: "media/seafood/Half Shell Scallop/1.jpg"},</v>
       </c>
       <c r="L29" s="3"/>
       <c r="M29" s="2"/>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="K30" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Half Shell Scallop (Pink)", category: "seafood", price: 200, id: "227", img: "./media/seafood/Half Shell Scallop (Pink)/1.jpg"},</v>
+        <v>{name:"Half Shell Scallop (Pink)", category: "seafood", price: 200, id: "227", img: "media/seafood/Half Shell Scallop (Pink)/1.jpg"},</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="2"/>
@@ -3290,7 +3290,7 @@
       </c>
       <c r="K31" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Halibut Fillet", category: "seafood", price: 200, id: "228", img: "./media/seafood/Halibut Fillet/1.jpg"},</v>
+        <v>{name:"Halibut Fillet", category: "seafood", price: 200, id: "228", img: "media/seafood/Halibut Fillet/1.jpg"},</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="2"/>
@@ -3339,7 +3339,7 @@
       </c>
       <c r="K32" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Halibut Fillet (Miso)", category: "seafood", price: 200, id: "229", img: "./media/seafood/Halibut Fillet (Miso)/1.jpg"},</v>
+        <v>{name:"Halibut Fillet (Miso)", category: "seafood", price: 200, id: "229", img: "media/seafood/Halibut Fillet (Miso)/1.jpg"},</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="2"/>
@@ -3388,7 +3388,7 @@
       </c>
       <c r="K33" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Halibut Steak", category: "seafood", price: 200, id: "230", img: "./media/seafood/Halibut Steak/1.jpg"},</v>
+        <v>{name:"Halibut Steak", category: "seafood", price: 200, id: "230", img: "media/seafood/Halibut Steak/1.jpg"},</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -3428,7 +3428,7 @@
       </c>
       <c r="K34" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Hokkaido Scallops (S)", category: "seafood", price: 200, id: "231", img: "./media/seafood/Hokkaido Scallops (S)/1.jpg"},</v>
+        <v>{name:"Hokkaido Scallops (S)", category: "seafood", price: 200, id: "231", img: "media/seafood/Hokkaido Scallops (S)/1.jpg"},</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -3467,8 +3467,8 @@
         <v>2</v>
       </c>
       <c r="K35" s="2" t="str">
-        <f t="shared" ref="K35:K37" si="13">"{name:"&amp;E35&amp;", category: "&amp;C35&amp;", price: "&amp;F35&amp;", id: "&amp;H35&amp;", img: ""./media/seafood/"&amp;D35&amp;"/1.jpg""},"</f>
-        <v>{name:"Half Shell Scallop (Pink)", category: "seafood", price: 200, id: "232", img: "./media/seafood/Half Shell Scallop (Pink)/1.jpg"},</v>
+        <f t="shared" si="3"/>
+        <v>{name:"Half Shell Scallop (Pink)", category: "seafood", price: 200, id: "232", img: "media/seafood/Half Shell Scallop (Pink)/1.jpg"},</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3507,8 +3507,8 @@
         <v>2</v>
       </c>
       <c r="K36" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>{name:"Halibut Fillet", category: "seafood", price: 200, id: "233", img: "./media/seafood/Halibut Fillet/1.jpg"},</v>
+        <f t="shared" si="3"/>
+        <v>{name:"Halibut Fillet", category: "seafood", price: 200, id: "233", img: "media/seafood/Halibut Fillet/1.jpg"},</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -3547,8 +3547,8 @@
         <v>2</v>
       </c>
       <c r="K37" s="2" t="str">
-        <f t="shared" si="13"/>
-        <v>{name:"Halibut Fillet (Miso)", category: "seafood", price: 200, id: "234", img: "./media/seafood/Halibut Fillet (Miso)/1.jpg"},</v>
+        <f t="shared" si="3"/>
+        <v>{name:"Halibut Fillet (Miso)", category: "seafood", price: 200, id: "234", img: "media/seafood/Halibut Fillet (Miso)/1.jpg"},</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -3588,7 +3588,7 @@
       </c>
       <c r="K38" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Imitation Shark Fin", category: "seafood", price: 200, id: "232", img: "./media/seafood/Imitation Shark Fin/1.jpg"},</v>
+        <v>{name:"Imitation Shark Fin", category: "seafood", price: 200, id: "232", img: "media/seafood/Imitation Shark Fin/1.jpg"},</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="K39" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Japan King Crab Filament Stick", category: "seafood", price: 200, id: "233", img: "./media/seafood/Japan King Crab Filament Stick/1.jpg"},</v>
+        <v>{name:"Japan King Crab Filament Stick", category: "seafood", price: 200, id: "233", img: "media/seafood/Japan King Crab Filament Stick/1.jpg"},</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -3668,7 +3668,7 @@
       </c>
       <c r="K40" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Japan Tamagoyaki", category: "seafood", price: 200, id: "234", img: "./media/seafood/Japan Tamagoyaki/1.jpg"},</v>
+        <v>{name:"Japan Tamagoyaki", category: "seafood", price: 200, id: "234", img: "media/seafood/Japan Tamagoyaki/1.jpg"},</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="K41" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Japanese Hotate Scallop", category: "seafood", price: 200, id: "235", img: "./media/seafood/Japanese Hotate Scallop/1.jpg"},</v>
+        <v>{name:"Japanese Hotate Scallop", category: "seafood", price: 200, id: "235", img: "media/seafood/Japanese Hotate Scallop/1.jpg"},</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -3748,7 +3748,7 @@
       </c>
       <c r="K42" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Lobster", category: "seafood", price: 200, id: "236", img: "./media/seafood/Lobster/1.jpg"},</v>
+        <v>{name:"Lobster", category: "seafood", price: 200, id: "236", img: "media/seafood/Lobster/1.jpg"},</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -3788,7 +3788,7 @@
       </c>
       <c r="K43" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Mala Seafood", category: "seafood", price: 200, id: "237", img: "./media/seafood/Mala Seafood/1.jpg"},</v>
+        <v>{name:"Mala Seafood", category: "seafood", price: 200, id: "237", img: "media/seafood/Mala Seafood/1.jpg"},</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="K44" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Mantis Prawn Meat Fresh", category: "seafood", price: 200, id: "238", img: "./media/seafood/Mantis Prawn Meat Fresh/1.jpg"},</v>
+        <v>{name:"Mantis Prawn Meat Fresh", category: "seafood", price: 200, id: "238", img: "media/seafood/Mantis Prawn Meat Fresh/1.jpg"},</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="K45" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Nikudo Fish Paste", category: "seafood", price: 200, id: "239", img: "./media/seafood/Nikudo Fish Paste/1.jpg"},</v>
+        <v>{name:"Nikudo Fish Paste", category: "seafood", price: 200, id: "239", img: "media/seafood/Nikudo Fish Paste/1.jpg"},</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -3908,7 +3908,7 @@
       </c>
       <c r="K46" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Patin Slice", category: "seafood", price: 200, id: "240", img: "./media/seafood/Patin Slice/1.jpg"},</v>
+        <v>{name:"Patin Slice", category: "seafood", price: 200, id: "240", img: "media/seafood/Patin Slice/1.jpg"},</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -3948,7 +3948,7 @@
       </c>
       <c r="K47" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Prawn Meat (L)", category: "seafood", price: 200, id: "241", img: "./media/seafood/Prawn Meat (L)/1.jpg"},</v>
+        <v>{name:"Prawn Meat (L)", category: "seafood", price: 200, id: "241", img: "media/seafood/Prawn Meat (L)/1.jpg"},</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -3988,7 +3988,7 @@
       </c>
       <c r="K48" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Prawn Meat (M)", category: "seafood", price: 200, id: "242", img: "./media/seafood/Prawn Meat (M)/1.jpg"},</v>
+        <v>{name:"Prawn Meat (M)", category: "seafood", price: 200, id: "242", img: "media/seafood/Prawn Meat (M)/1.jpg"},</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="K49" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Prawn Meat (S)", category: "seafood", price: 200, id: "243", img: "./media/seafood/Prawn Meat (S)/1.jpg"},</v>
+        <v>{name:"Prawn Meat (S)", category: "seafood", price: 200, id: "243", img: "media/seafood/Prawn Meat (S)/1.jpg"},</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -4068,7 +4068,7 @@
       </c>
       <c r="K50" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Prawn Meat (XS)", category: "seafood", price: 200, id: "244", img: "./media/seafood/Prawn Meat (XS)/1.jpg"},</v>
+        <v>{name:"Prawn Meat (XS)", category: "seafood", price: 200, id: "244", img: "media/seafood/Prawn Meat (XS)/1.jpg"},</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -4108,7 +4108,7 @@
       </c>
       <c r="K51" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Premium Black Mussels", category: "seafood", price: 200, id: "245", img: "./media/seafood/Premium Black Mussels/1.jpg"},</v>
+        <v>{name:"Premium Black Mussels", category: "seafood", price: 200, id: "245", img: "media/seafood/Premium Black Mussels/1.jpg"},</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -4148,7 +4148,7 @@
       </c>
       <c r="K52" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Red Snapper Fillet (Miso)", category: "seafood", price: 200, id: "246", img: "./media/seafood/Red Snapper Fillet (Miso)/1.jpg"},</v>
+        <v>{name:"Red Snapper Fillet (Miso)", category: "seafood", price: 200, id: "246", img: "media/seafood/Red Snapper Fillet (Miso)/1.jpg"},</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -4188,7 +4188,7 @@
       </c>
       <c r="K53" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Saba Fillet", category: "seafood", price: 200, id: "247", img: "./media/seafood/Saba Fillet/1.jpg"},</v>
+        <v>{name:"Saba Fillet", category: "seafood", price: 200, id: "247", img: "media/seafood/Saba Fillet/1.jpg"},</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="K54" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Saba Fillet (Fried)", category: "seafood", price: 200, id: "248", img: "./media/seafood/Saba Fillet (Fried)/1.jpg"},</v>
+        <v>{name:"Saba Fillet (Fried)", category: "seafood", price: 200, id: "248", img: "media/seafood/Saba Fillet (Fried)/1.jpg"},</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -4268,7 +4268,7 @@
       </c>
       <c r="K55" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Saba Fillet (Miso)", category: "seafood", price: 200, id: "249", img: "./media/seafood/Saba Fillet (Miso)/1.jpg"},</v>
+        <v>{name:"Saba Fillet (Miso)", category: "seafood", price: 200, id: "249", img: "media/seafood/Saba Fillet (Miso)/1.jpg"},</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -4308,7 +4308,7 @@
       </c>
       <c r="K56" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Saba Fillet (Salt Baked)", category: "seafood", price: 200, id: "250", img: "./media/seafood/Saba Fillet (Salt Baked)/1.jpg"},</v>
+        <v>{name:"Saba Fillet (Salt Baked)", category: "seafood", price: 200, id: "250", img: "media/seafood/Saba Fillet (Salt Baked)/1.jpg"},</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -4348,7 +4348,7 @@
       </c>
       <c r="K57" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Salmon Fillet", category: "seafood", price: 200, id: "251", img: "./media/seafood/Salmon Fillet/1.jpg"},</v>
+        <v>{name:"Salmon Fillet", category: "seafood", price: 200, id: "251", img: "media/seafood/Salmon Fillet/1.jpg"},</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="K58" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Salmon Fillet (uncut)", category: "seafood", price: 200, id: "252", img: "./media/seafood/Salmon Fillet (uncut)/1.jpg"},</v>
+        <v>{name:"Salmon Fillet (uncut)", category: "seafood", price: 200, id: "252", img: "media/seafood/Salmon Fillet (uncut)/1.jpg"},</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="K59" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Salmon Head", category: "seafood", price: 200, id: "253", img: "./media/seafood/Salmon Head/1.jpg"},</v>
+        <v>{name:"Salmon Head", category: "seafood", price: 200, id: "253", img: "media/seafood/Salmon Head/1.jpg"},</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="K60" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Salmon Steak", category: "seafood", price: 200, id: "254", img: "./media/seafood/Salmon Steak/1.jpg"},</v>
+        <v>{name:"Salmon Steak", category: "seafood", price: 200, id: "254", img: "media/seafood/Salmon Steak/1.jpg"},</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="K61" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Scallop Sliders", category: "seafood", price: 200, id: "255", img: "./media/seafood/Scallop Sliders/1.jpg"},</v>
+        <v>{name:"Scallop Sliders", category: "seafood", price: 200, id: "255", img: "media/seafood/Scallop Sliders/1.jpg"},</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -4548,7 +4548,7 @@
       </c>
       <c r="K62" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Scampi U7", category: "seafood", price: 200, id: "256", img: "./media/seafood/Scampi U7/1.jpg"},</v>
+        <v>{name:"Scampi U7", category: "seafood", price: 200, id: "256", img: "media/seafood/Scampi U7/1.jpg"},</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -4588,7 +4588,7 @@
       </c>
       <c r="K63" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Sea Cucumber", category: "seafood", price: 200, id: "257", img: "./media/seafood/Sea Cucumber/1.jpg"},</v>
+        <v>{name:"Sea Cucumber", category: "seafood", price: 200, id: "257", img: "media/seafood/Sea Cucumber/1.jpg"},</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -4628,7 +4628,7 @@
       </c>
       <c r="K64" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Sea Urchin Platter (L)", category: "seafood", price: 200, id: "258", img: "./media/seafood/Sea Urchin Platter (L)/1.jpg"},</v>
+        <v>{name:"Sea Urchin Platter (L)", category: "seafood", price: 200, id: "258", img: "media/seafood/Sea Urchin Platter (L)/1.jpg"},</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="K65" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Seafood Tofu", category: "seafood", price: 200, id: "259", img: "./media/seafood/Seafood Tofu/1.jpg"},</v>
+        <v>{name:"Seafood Tofu", category: "seafood", price: 200, id: "259", img: "media/seafood/Seafood Tofu/1.jpg"},</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -4708,7 +4708,7 @@
       </c>
       <c r="K66" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Seasoned Octopus Salad (Mala)", category: "seafood", price: 200, id: "260", img: "./media/seafood/Seasoned Octopus Salad (Mala)/1.jpg"},</v>
+        <v>{name:"Seasoned Octopus Salad (Mala)", category: "seafood", price: 200, id: "260", img: "media/seafood/Seasoned Octopus Salad (Mala)/1.jpg"},</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -4748,7 +4748,7 @@
       </c>
       <c r="K67" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Seasoned Sea Snail Salad (Wasabi)", category: "seafood", price: 200, id: "261", img: "./media/seafood/Seasoned Sea Snail Salad (Wasabi)/1.jpg"},</v>
+        <v>{name:"Seasoned Sea Snail Salad (Wasabi)", category: "seafood", price: 200, id: "261", img: "media/seafood/Seasoned Sea Snail Salad (Wasabi)/1.jpg"},</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -4787,8 +4787,8 @@
         <v>2</v>
       </c>
       <c r="K68" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>{name:"Shark Fin (Real) 500g", category: "seafood", price: 200, id: "262", img: "./media/seafood/Shark Fin (Real) 500g/1.jpg"},</v>
+        <f t="shared" ref="K68:K87" si="13">"{name:"&amp;E68&amp;", category: "&amp;C68&amp;", price: "&amp;F68&amp;", id: "&amp;H68&amp;", img: ""media/seafood/"&amp;D68&amp;"/1.jpg""},"</f>
+        <v>{name:"Shark Fin (Real) 500g", category: "seafood", price: 200, id: "262", img: "media/seafood/Shark Fin (Real) 500g/1.jpg"},</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -4827,8 +4827,8 @@
         <v>2</v>
       </c>
       <c r="K69" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>{name:"Shime Saba (Vinegered Mackerel)", category: "seafood", price: 200, id: "263", img: "./media/seafood/Shime Saba (Vinegered Mackerel)/1.jpg"},</v>
+        <f t="shared" si="13"/>
+        <v>{name:"Shime Saba (Vinegered Mackerel)", category: "seafood", price: 200, id: "263", img: "media/seafood/Shime Saba (Vinegered Mackerel)/1.jpg"},</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -4867,8 +4867,8 @@
         <v>2</v>
       </c>
       <c r="K70" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>{name:"Shishamo", category: "seafood", price: 200, id: "264", img: "./media/seafood/Shishamo/1.jpg"},</v>
+        <f t="shared" si="13"/>
+        <v>{name:"Shishamo", category: "seafood", price: 200, id: "264", img: "media/seafood/Shishamo/1.jpg"},</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -4907,8 +4907,8 @@
         <v>2</v>
       </c>
       <c r="K71" s="2" t="str">
-        <f t="shared" ref="K71:K87" si="14">"{name:"&amp;E71&amp;", category: "&amp;C71&amp;", price: "&amp;F71&amp;", id: "&amp;H71&amp;", img: ""./media/seafood/"&amp;D71&amp;"/1.jpg""},"</f>
-        <v>{name:"Shrimp Paste", category: "seafood", price: 200, id: "265", img: "./media/seafood/Shrimp Paste/1.jpg"},</v>
+        <f t="shared" si="13"/>
+        <v>{name:"Shrimp Paste", category: "seafood", price: 200, id: "265", img: "media/seafood/Shrimp Paste/1.jpg"},</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -4947,8 +4947,8 @@
         <v>2</v>
       </c>
       <c r="K72" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>{name:"Siakap Fillet", category: "seafood", price: 200, id: "266", img: "./media/seafood/Siakap Fillet/1.jpg"},</v>
+        <f t="shared" si="13"/>
+        <v>{name:"Siakap Fillet", category: "seafood", price: 200, id: "266", img: "media/seafood/Siakap Fillet/1.jpg"},</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -4987,8 +4987,8 @@
         <v>2</v>
       </c>
       <c r="K73" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>{name:"Smoked Salmon", category: "seafood", price: 200, id: "267", img: "./media/seafood/Smoked Salmon/1.jpg"},</v>
+        <f t="shared" si="13"/>
+        <v>{name:"Smoked Salmon", category: "seafood", price: 200, id: "267", img: "media/seafood/Smoked Salmon/1.jpg"},</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -4999,7 +4999,7 @@
         <v>6</v>
       </c>
       <c r="C74" s="5" t="str">
-        <f t="shared" ref="C74:C87" si="15">""&amp;J74&amp;""&amp;B74&amp;""&amp;J74&amp;""</f>
+        <f t="shared" ref="C74:C87" si="14">""&amp;J74&amp;""&amp;B74&amp;""&amp;J74&amp;""</f>
         <v>"seafood"</v>
       </c>
       <c r="D74" s="11" t="s">
@@ -5027,8 +5027,8 @@
         <v>2</v>
       </c>
       <c r="K74" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>{name:"Soft Shell Crab", category: "seafood", price: 200, id: "268", img: "./media/seafood/Soft Shell Crab/1.jpg"},</v>
+        <f t="shared" si="13"/>
+        <v>{name:"Soft Shell Crab", category: "seafood", price: 200, id: "268", img: "media/seafood/Soft Shell Crab/1.jpg"},</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -5039,7 +5039,7 @@
         <v>6</v>
       </c>
       <c r="C75" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>"seafood"</v>
       </c>
       <c r="D75" s="11" t="s">
@@ -5067,8 +5067,8 @@
         <v>2</v>
       </c>
       <c r="K75" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>{name:"Sotong (Cleaned) 2kg", category: "seafood", price: 200, id: "269", img: "./media/seafood/Sotong (Cleaned) 2kg/1.jpg"},</v>
+        <f t="shared" si="13"/>
+        <v>{name:"Sotong (Cleaned) 2kg", category: "seafood", price: 200, id: "269", img: "media/seafood/Sotong (Cleaned) 2kg/1.jpg"},</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -5079,14 +5079,14 @@
         <v>6</v>
       </c>
       <c r="C76" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>"seafood"</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>86</v>
       </c>
       <c r="E76" s="6" t="str">
-        <f t="shared" ref="E76:E87" si="16">""&amp;J76&amp;""&amp;D76&amp;""&amp;J76&amp;""</f>
+        <f t="shared" ref="E76:E87" si="15">""&amp;J76&amp;""&amp;D76&amp;""&amp;J76&amp;""</f>
         <v>"Spicy Clam with Shell"</v>
       </c>
       <c r="F76" s="13">
@@ -5096,7 +5096,7 @@
         <v>270</v>
       </c>
       <c r="H76" s="6" t="str">
-        <f t="shared" ref="H76:H87" si="17">""&amp;J76&amp;""&amp;G76&amp;""&amp;J76&amp;""</f>
+        <f t="shared" ref="H76:H87" si="16">""&amp;J76&amp;""&amp;G76&amp;""&amp;J76&amp;""</f>
         <v>"270"</v>
       </c>
       <c r="I76" s="7" t="str">
@@ -5107,8 +5107,8 @@
         <v>2</v>
       </c>
       <c r="K76" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>{name:"Spicy Clam with Shell", category: "seafood", price: 200, id: "270", img: "./media/seafood/Spicy Clam with Shell/1.jpg"},</v>
+        <f t="shared" si="13"/>
+        <v>{name:"Spicy Clam with Shell", category: "seafood", price: 200, id: "270", img: "media/seafood/Spicy Clam with Shell/1.jpg"},</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -5119,14 +5119,14 @@
         <v>6</v>
       </c>
       <c r="C77" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>"seafood"</v>
       </c>
       <c r="D77" s="11" t="s">
         <v>87</v>
       </c>
       <c r="E77" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>"Spicy Crayfish Whole 700g"</v>
       </c>
       <c r="F77" s="13">
@@ -5136,19 +5136,19 @@
         <v>271</v>
       </c>
       <c r="H77" s="6" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="16"/>
         <v>"271"</v>
       </c>
       <c r="I77" s="7" t="str">
-        <f t="shared" ref="I77:I87" si="18">"./media/"&amp;E77&amp;"/1.jpg"</f>
+        <f t="shared" ref="I77:I87" si="17">"./media/"&amp;E77&amp;"/1.jpg"</f>
         <v>./media/"Spicy Crayfish Whole 700g"/1.jpg</v>
       </c>
       <c r="J77" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K77" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>{name:"Spicy Crayfish Whole 700g", category: "seafood", price: 200, id: "271", img: "./media/seafood/Spicy Crayfish Whole 700g/1.jpg"},</v>
+        <f t="shared" si="13"/>
+        <v>{name:"Spicy Crayfish Whole 700g", category: "seafood", price: 200, id: "271", img: "media/seafood/Spicy Crayfish Whole 700g/1.jpg"},</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -5159,14 +5159,14 @@
         <v>6</v>
       </c>
       <c r="C78" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>"seafood"</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>88</v>
       </c>
       <c r="E78" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>"Tilapia (Premium Quality)"</v>
       </c>
       <c r="F78" s="13">
@@ -5176,19 +5176,19 @@
         <v>272</v>
       </c>
       <c r="H78" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>"272"</v>
+      </c>
+      <c r="I78" s="7" t="str">
         <f t="shared" si="17"/>
-        <v>"272"</v>
-      </c>
-      <c r="I78" s="7" t="str">
-        <f t="shared" si="18"/>
         <v>./media/"Tilapia (Premium Quality)"/1.jpg</v>
       </c>
       <c r="J78" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K78" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>{name:"Tilapia (Premium Quality)", category: "seafood", price: 200, id: "272", img: "./media/seafood/Tilapia (Premium Quality)/1.jpg"},</v>
+        <f t="shared" si="13"/>
+        <v>{name:"Tilapia (Premium Quality)", category: "seafood", price: 200, id: "272", img: "media/seafood/Tilapia (Premium Quality)/1.jpg"},</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -5199,14 +5199,14 @@
         <v>6</v>
       </c>
       <c r="C79" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>"seafood"</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>117</v>
       </c>
       <c r="E79" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>"Tobiko Orange (50g)"</v>
       </c>
       <c r="F79" s="13">
@@ -5216,19 +5216,19 @@
         <v>273</v>
       </c>
       <c r="H79" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>"273"</v>
+      </c>
+      <c r="I79" s="7" t="str">
         <f t="shared" si="17"/>
-        <v>"273"</v>
-      </c>
-      <c r="I79" s="7" t="str">
-        <f t="shared" si="18"/>
         <v>./media/"Tobiko Orange (50g)"/1.jpg</v>
       </c>
       <c r="J79" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K79" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>{name:"Tobiko Orange (50g)", category: "seafood", price: 200, id: "273", img: "./media/seafood/Tobiko Orange (50g)/1.jpg"},</v>
+        <f t="shared" si="13"/>
+        <v>{name:"Tobiko Orange (50g)", category: "seafood", price: 200, id: "273", img: "media/seafood/Tobiko Orange (50g)/1.jpg"},</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -5236,14 +5236,14 @@
         <v>6</v>
       </c>
       <c r="C80" s="5" t="str">
-        <f t="shared" ref="C80" si="19">""&amp;J80&amp;""&amp;B80&amp;""&amp;J80&amp;""</f>
+        <f t="shared" ref="C80" si="18">""&amp;J80&amp;""&amp;B80&amp;""&amp;J80&amp;""</f>
         <v>"seafood"</v>
       </c>
       <c r="D80" s="12" t="s">
         <v>118</v>
       </c>
       <c r="E80" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>"Tobiko Orange (500g)"</v>
       </c>
       <c r="F80" s="13">
@@ -5253,19 +5253,19 @@
         <v>274</v>
       </c>
       <c r="H80" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>"274"</v>
+      </c>
+      <c r="I80" s="7" t="str">
         <f t="shared" si="17"/>
-        <v>"274"</v>
-      </c>
-      <c r="I80" s="7" t="str">
-        <f t="shared" si="18"/>
         <v>./media/"Tobiko Orange (500g)"/1.jpg</v>
       </c>
       <c r="J80" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K80" s="2" t="str">
-        <f t="shared" ref="K80" si="20">"{name:"&amp;E80&amp;", category: "&amp;C80&amp;", price: "&amp;F80&amp;", id: "&amp;H80&amp;", img: ""./media/seafood/"&amp;D80&amp;"/1.jpg""},"</f>
-        <v>{name:"Tobiko Orange (500g)", category: "seafood", price: 200, id: "274", img: "./media/seafood/Tobiko Orange (500g)/1.jpg"},</v>
+        <f t="shared" si="13"/>
+        <v>{name:"Tobiko Orange (500g)", category: "seafood", price: 200, id: "274", img: "media/seafood/Tobiko Orange (500g)/1.jpg"},</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -5276,14 +5276,14 @@
         <v>6</v>
       </c>
       <c r="C81" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>"seafood"</v>
       </c>
       <c r="D81" s="11" t="s">
         <v>89</v>
       </c>
       <c r="E81" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>"Tobiko Shrimp Paste"</v>
       </c>
       <c r="F81" s="13">
@@ -5293,19 +5293,19 @@
         <v>274</v>
       </c>
       <c r="H81" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>"274"</v>
+      </c>
+      <c r="I81" s="7" t="str">
         <f t="shared" si="17"/>
-        <v>"274"</v>
-      </c>
-      <c r="I81" s="7" t="str">
-        <f t="shared" si="18"/>
         <v>./media/"Tobiko Shrimp Paste"/1.jpg</v>
       </c>
       <c r="J81" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K81" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>{name:"Tobiko Shrimp Paste", category: "seafood", price: 200, id: "274", img: "./media/seafood/Tobiko Shrimp Paste/1.jpg"},</v>
+        <f t="shared" si="13"/>
+        <v>{name:"Tobiko Shrimp Paste", category: "seafood", price: 200, id: "274", img: "media/seafood/Tobiko Shrimp Paste/1.jpg"},</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -5316,14 +5316,14 @@
         <v>6</v>
       </c>
       <c r="C82" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>"seafood"</v>
       </c>
       <c r="D82" s="11" t="s">
         <v>90</v>
       </c>
       <c r="E82" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>"Tuna Fillet"</v>
       </c>
       <c r="F82" s="13">
@@ -5333,19 +5333,19 @@
         <v>275</v>
       </c>
       <c r="H82" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>"275"</v>
+      </c>
+      <c r="I82" s="7" t="str">
         <f t="shared" si="17"/>
-        <v>"275"</v>
-      </c>
-      <c r="I82" s="7" t="str">
-        <f t="shared" si="18"/>
         <v>./media/"Tuna Fillet"/1.jpg</v>
       </c>
       <c r="J82" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K82" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>{name:"Tuna Fillet", category: "seafood", price: 200, id: "275", img: "./media/seafood/Tuna Fillet/1.jpg"},</v>
+        <f t="shared" si="13"/>
+        <v>{name:"Tuna Fillet", category: "seafood", price: 200, id: "275", img: "media/seafood/Tuna Fillet/1.jpg"},</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -5356,14 +5356,14 @@
         <v>6</v>
       </c>
       <c r="C83" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>"seafood"</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>91</v>
       </c>
       <c r="E83" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>"Tuna Kelp Roll"</v>
       </c>
       <c r="F83" s="13">
@@ -5373,19 +5373,19 @@
         <v>276</v>
       </c>
       <c r="H83" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>"276"</v>
+      </c>
+      <c r="I83" s="7" t="str">
         <f t="shared" si="17"/>
-        <v>"276"</v>
-      </c>
-      <c r="I83" s="7" t="str">
-        <f t="shared" si="18"/>
         <v>./media/"Tuna Kelp Roll"/1.jpg</v>
       </c>
       <c r="J83" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K83" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>{name:"Tuna Kelp Roll", category: "seafood", price: 200, id: "276", img: "./media/seafood/Tuna Kelp Roll/1.jpg"},</v>
+        <f t="shared" si="13"/>
+        <v>{name:"Tuna Kelp Roll", category: "seafood", price: 200, id: "276", img: "media/seafood/Tuna Kelp Roll/1.jpg"},</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -5396,14 +5396,14 @@
         <v>6</v>
       </c>
       <c r="C84" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>"seafood"</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>92</v>
       </c>
       <c r="E84" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>"Unagi 200g"</v>
       </c>
       <c r="F84" s="13">
@@ -5413,19 +5413,19 @@
         <v>277</v>
       </c>
       <c r="H84" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>"277"</v>
+      </c>
+      <c r="I84" s="7" t="str">
         <f t="shared" si="17"/>
-        <v>"277"</v>
-      </c>
-      <c r="I84" s="7" t="str">
-        <f t="shared" si="18"/>
         <v>./media/"Unagi 200g"/1.jpg</v>
       </c>
       <c r="J84" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K84" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>{name:"Unagi 200g", category: "seafood", price: 200, id: "277", img: "./media/seafood/Unagi 200g/1.jpg"},</v>
+        <f t="shared" si="13"/>
+        <v>{name:"Unagi 200g", category: "seafood", price: 200, id: "277", img: "media/seafood/Unagi 200g/1.jpg"},</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -5436,14 +5436,14 @@
         <v>6</v>
       </c>
       <c r="C85" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>"seafood"</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>93</v>
       </c>
       <c r="E85" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>"Unagi 310g"</v>
       </c>
       <c r="F85" s="13">
@@ -5453,19 +5453,19 @@
         <v>278</v>
       </c>
       <c r="H85" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>"278"</v>
+      </c>
+      <c r="I85" s="7" t="str">
         <f t="shared" si="17"/>
-        <v>"278"</v>
-      </c>
-      <c r="I85" s="7" t="str">
-        <f t="shared" si="18"/>
         <v>./media/"Unagi 310g"/1.jpg</v>
       </c>
       <c r="J85" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K85" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>{name:"Unagi 310g", category: "seafood", price: 200, id: "278", img: "./media/seafood/Unagi 310g/1.jpg"},</v>
+        <f t="shared" si="13"/>
+        <v>{name:"Unagi 310g", category: "seafood", price: 200, id: "278", img: "media/seafood/Unagi 310g/1.jpg"},</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -5476,14 +5476,14 @@
         <v>6</v>
       </c>
       <c r="C86" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>"seafood"</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>94</v>
       </c>
       <c r="E86" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>"White Prawn (L)"</v>
       </c>
       <c r="F86" s="13">
@@ -5493,19 +5493,19 @@
         <v>279</v>
       </c>
       <c r="H86" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>"279"</v>
+      </c>
+      <c r="I86" s="7" t="str">
         <f t="shared" si="17"/>
-        <v>"279"</v>
-      </c>
-      <c r="I86" s="7" t="str">
-        <f t="shared" si="18"/>
         <v>./media/"White Prawn (L)"/1.jpg</v>
       </c>
       <c r="J86" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K86" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>{name:"White Prawn (L)", category: "seafood", price: 200, id: "279", img: "./media/seafood/White Prawn (L)/1.jpg"},</v>
+        <f t="shared" si="13"/>
+        <v>{name:"White Prawn (L)", category: "seafood", price: 200, id: "279", img: "media/seafood/White Prawn (L)/1.jpg"},</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -5516,14 +5516,14 @@
         <v>6</v>
       </c>
       <c r="C87" s="5" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>"seafood"</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>95</v>
       </c>
       <c r="E87" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="15"/>
         <v>"White Prawn (M)"</v>
       </c>
       <c r="F87" s="13">
@@ -5533,19 +5533,19 @@
         <v>280</v>
       </c>
       <c r="H87" s="6" t="str">
+        <f t="shared" si="16"/>
+        <v>"280"</v>
+      </c>
+      <c r="I87" s="7" t="str">
         <f t="shared" si="17"/>
-        <v>"280"</v>
-      </c>
-      <c r="I87" s="7" t="str">
-        <f t="shared" si="18"/>
         <v>./media/"White Prawn (M)"/1.jpg</v>
       </c>
       <c r="J87" s="8" t="s">
         <v>2</v>
       </c>
       <c r="K87" s="2" t="str">
-        <f t="shared" si="14"/>
-        <v>{name:"White Prawn (M)", category: "seafood", price: 200, id: "280", img: "./media/seafood/White Prawn (M)/1.jpg"},</v>
+        <f t="shared" si="13"/>
+        <v>{name:"White Prawn (M)", category: "seafood", price: 200, id: "280", img: "media/seafood/White Prawn (M)/1.jpg"},</v>
       </c>
     </row>
   </sheetData>
@@ -5558,7 +5558,7 @@
   <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="K7" sqref="K3:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5568,7 +5568,7 @@
     <col min="6" max="6" width="10.7109375" style="16"/>
     <col min="9" max="9" width="28.42578125" customWidth="1"/>
     <col min="10" max="10" width="1.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="74.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="109.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -5652,8 +5652,8 @@
         <v>2</v>
       </c>
       <c r="K3" s="2" t="str">
-        <f>"{name:"&amp;E3&amp;", category: "&amp;C3&amp;", price: "&amp;F3&amp;", id: "&amp;H3&amp;", img: ""./media/vegetables/"&amp;D3&amp;"/1.jpg""},"</f>
-        <v>{name:"Cheese Tofu", category: "vegetables", price: 200, id: "300", img: "./media/vegetables/Cheese Tofu/1.jpg"},</v>
+        <f>"{name:"&amp;E3&amp;", category: "&amp;C3&amp;", price: "&amp;F3&amp;", id: "&amp;H3&amp;", img: ""media/vegetables/"&amp;D3&amp;"/1.jpg""},"</f>
+        <v>{name:"Cheese Tofu", category: "vegetables", price: 200, id: "300", img: "media/vegetables/Cheese Tofu/1.jpg"},</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="2"/>
@@ -5701,8 +5701,8 @@
         <v>2</v>
       </c>
       <c r="K4" s="2" t="str">
-        <f t="shared" ref="K4:K7" si="3">"{name:"&amp;E4&amp;", category: "&amp;C4&amp;", price: "&amp;F4&amp;", id: "&amp;H4&amp;", img: ""./media/vegetables/"&amp;D4&amp;"/1.jpg""},"</f>
-        <v>{name:"Edamame", category: "vegetables", price: 200, id: "301", img: "./media/vegetables/Edamame/1.jpg"},</v>
+        <f t="shared" ref="K4:K7" si="3">"{name:"&amp;E4&amp;", category: "&amp;C4&amp;", price: "&amp;F4&amp;", id: "&amp;H4&amp;", img: ""media/vegetables/"&amp;D4&amp;"/1.jpg""},"</f>
+        <v>{name:"Edamame", category: "vegetables", price: 200, id: "301", img: "media/vegetables/Edamame/1.jpg"},</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="2"/>
@@ -5751,7 +5751,7 @@
       </c>
       <c r="K5" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Edamame (peeled)", category: "vegetables", price: 200, id: "302", img: "./media/vegetables/Edamame (peeled)/1.jpg"},</v>
+        <v>{name:"Edamame (peeled)", category: "vegetables", price: 200, id: "302", img: "media/vegetables/Edamame (peeled)/1.jpg"},</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="2"/>
@@ -5800,7 +5800,7 @@
       </c>
       <c r="K6" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"French Fries (Crinkle Cut)", category: "vegetables", price: 200, id: "303", img: "./media/vegetables/French Fries (Crinkle Cut)/1.jpg"},</v>
+        <v>{name:"French Fries (Crinkle Cut)", category: "vegetables", price: 200, id: "303", img: "media/vegetables/French Fries (Crinkle Cut)/1.jpg"},</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="2"/>
@@ -5849,7 +5849,7 @@
       </c>
       <c r="K7" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"French Fries (Shoestring)", category: "vegetables", price: 200, id: "304", img: "./media/vegetables/French Fries (Shoestring)/1.jpg"},</v>
+        <v>{name:"French Fries (Shoestring)", category: "vegetables", price: 200, id: "304", img: "media/vegetables/French Fries (Shoestring)/1.jpg"},</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="2"/>
@@ -6520,8 +6520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABBE641B-AAD5-B940-B7A3-9BB530D84FE2}">
   <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K3:K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6531,7 +6531,7 @@
     <col min="6" max="6" width="10.7109375" style="16"/>
     <col min="9" max="9" width="28.42578125" customWidth="1"/>
     <col min="10" max="10" width="1.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="74.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="93.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
@@ -6615,8 +6615,8 @@
         <v>2</v>
       </c>
       <c r="K3" s="2" t="str">
-        <f>"{name:"&amp;E3&amp;", category: "&amp;C3&amp;", price: "&amp;F3&amp;", id: "&amp;H3&amp;", img: ""./media/fruits/"&amp;D3&amp;"/1.jpg""},"</f>
-        <v>{name:"Frozen Blueberries", category: "fruits", price: 200, id: "400", img: "./media/fruits/Frozen Blueberries/1.jpg"},</v>
+        <f>"{name:"&amp;E3&amp;", category: "&amp;C3&amp;", price: "&amp;F3&amp;", id: "&amp;H3&amp;", img: ""media/fruits/"&amp;D3&amp;"/1.jpg""},"</f>
+        <v>{name:"Frozen Blueberries", category: "fruits", price: 200, id: "400", img: "media/fruits/Frozen Blueberries/1.jpg"},</v>
       </c>
       <c r="L3" s="3"/>
       <c r="M3" s="2"/>
@@ -6664,8 +6664,8 @@
         <v>2</v>
       </c>
       <c r="K4" s="2" t="str">
-        <f t="shared" ref="K4:K7" si="3">"{name:"&amp;E4&amp;", category: "&amp;C4&amp;", price: "&amp;F4&amp;", id: "&amp;H4&amp;", img: ""./media/fruits/"&amp;D4&amp;"/1.jpg""},"</f>
-        <v>{name:"Frozen Mixed Berries", category: "fruits", price: 200, id: "401", img: "./media/fruits/Frozen Mixed Berries/1.jpg"},</v>
+        <f t="shared" ref="K4:K7" si="3">"{name:"&amp;E4&amp;", category: "&amp;C4&amp;", price: "&amp;F4&amp;", id: "&amp;H4&amp;", img: ""media/fruits/"&amp;D4&amp;"/1.jpg""},"</f>
+        <v>{name:"Frozen Mixed Berries", category: "fruits", price: 200, id: "401", img: "media/fruits/Frozen Mixed Berries/1.jpg"},</v>
       </c>
       <c r="L4" s="3"/>
       <c r="M4" s="2"/>
@@ -6714,7 +6714,7 @@
       </c>
       <c r="K5" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Frozen Mixed Fruits", category: "fruits", price: 200, id: "402", img: "./media/fruits/Frozen Mixed Fruits/1.jpg"},</v>
+        <v>{name:"Frozen Mixed Fruits", category: "fruits", price: 200, id: "402", img: "media/fruits/Frozen Mixed Fruits/1.jpg"},</v>
       </c>
       <c r="L5" s="3"/>
       <c r="M5" s="2"/>
@@ -6763,7 +6763,7 @@
       </c>
       <c r="K6" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Frozen Rasberries", category: "fruits", price: 200, id: "403", img: "./media/fruits/Frozen Rasberries/1.jpg"},</v>
+        <v>{name:"Frozen Rasberries", category: "fruits", price: 200, id: "403", img: "media/fruits/Frozen Rasberries/1.jpg"},</v>
       </c>
       <c r="L6" s="3"/>
       <c r="M6" s="2"/>
@@ -6812,7 +6812,7 @@
       </c>
       <c r="K7" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>{name:"Frozen Strawberries", category: "fruits", price: 200, id: "404", img: "./media/fruits/Frozen Strawberries/1.jpg"},</v>
+        <v>{name:"Frozen Strawberries", category: "fruits", price: 200, id: "404", img: "media/fruits/Frozen Strawberries/1.jpg"},</v>
       </c>
       <c r="L7" s="3"/>
       <c r="M7" s="2"/>
